--- a/core/core-api/src/main/resources/excel-templates/BTP.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/BTP.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTG\Desktop\f-pms\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HTG\Desktop\f-pms\pms\core\core-api\src\main\resources\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11669,6 +11669,150 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11688,12 +11832,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11720,138 +11858,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11860,12 +11866,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12221,8 +12221,8 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="59" zoomScaleNormal="70" zoomScaleSheetLayoutView="59" workbookViewId="0">
-      <selection activeCell="AF71" sqref="AF71"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="59" zoomScaleNormal="70" zoomScaleSheetLayoutView="59" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13357,52 +13357,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -14015,89 +14015,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92" t="s">
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="99" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="100" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="100" t="s">
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="100" t="s">
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="100" t="s">
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="101"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="99"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -14134,15 +14134,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="99"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="95"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -14187,25 +14187,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="74">
         <v>1</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G39" s="83">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -14236,21 +14236,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="123">
+      <c r="U39" s="58">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="112"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -14279,18 +14279,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="122"/>
+      <c r="U40" s="59"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -14319,28 +14319,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="122"/>
+      <c r="U41" s="59"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+      <c r="A42" s="74">
         <v>2</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="80" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="83">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -14371,21 +14371,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="123">
+      <c r="U42" s="58">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -14414,18 +14414,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="122"/>
+      <c r="U43" s="59"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="113"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -14454,28 +14454,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="122"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+      <c r="A45" s="74">
         <v>3</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="80" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="83">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -14506,21 +14506,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="123">
+      <c r="U45" s="58">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="112"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -14549,18 +14549,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="122"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="113"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -14589,28 +14589,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="122"/>
+      <c r="U47" s="59"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108">
+      <c r="A48" s="74">
         <v>4</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="80" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="83">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -14641,21 +14641,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="123">
+      <c r="U48" s="58">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -14684,18 +14684,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="122"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="113"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -14724,28 +14724,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="122"/>
+      <c r="U50" s="59"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+      <c r="A51" s="74">
         <v>5</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="80" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="111">
+      <c r="G51" s="83">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -14776,21 +14776,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="123">
+      <c r="U51" s="58">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="112"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -14819,18 +14819,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="122"/>
+      <c r="U52" s="59"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="113"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -14859,22 +14859,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="122"/>
+      <c r="U53" s="59"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="80" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="111">
+      <c r="G54" s="83">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -14905,21 +14905,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="123">
+      <c r="U54" s="58">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -14948,18 +14948,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="122"/>
+      <c r="U55" s="59"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="113"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -14988,28 +14988,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="122"/>
+      <c r="U56" s="59"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="74">
         <v>6</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="83">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -15040,21 +15040,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="123">
+      <c r="U57" s="58">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -15083,18 +15083,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="122"/>
+      <c r="U58" s="59"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="113"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -15123,24 +15123,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="122"/>
+      <c r="U59" s="59"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="85" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="77" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="111">
+      <c r="G60" s="83">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -15171,21 +15171,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U60" s="123">
+      <c r="U60" s="58">
         <f t="shared" ref="U60" si="10">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="86"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -15214,18 +15214,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U61" s="122"/>
+      <c r="U61" s="59"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="87"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="113"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -15254,28 +15254,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="122"/>
+      <c r="U62" s="59"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108">
+      <c r="A63" s="74">
         <v>7</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="80" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="83">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -15306,21 +15306,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="123">
+      <c r="U63" s="58">
         <f t="shared" ref="U63" si="11">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="112"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -15349,18 +15349,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="122"/>
+      <c r="U64" s="59"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="113"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -15389,7 +15389,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="122"/>
+      <c r="U65" s="59"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -15408,11 +15408,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="107" t="s">
+      <c r="Q66" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -15435,11 +15435,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="107" t="s">
+      <c r="Q67" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -15462,11 +15462,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="107" t="s">
+      <c r="Q68" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -15489,11 +15489,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="107" t="s">
+      <c r="Q69" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -15556,89 +15556,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92" t="s">
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92" t="s">
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92" t="s">
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="99" t="s">
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="100" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="101"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="100" t="s">
+      <c r="I73" s="63"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="101"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="100" t="s">
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O73" s="101"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="100" t="s">
+      <c r="O73" s="63"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R73" s="101"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="99"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="61"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -15675,15 +15675,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="99"/>
+      <c r="T74" s="61"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="95"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="69"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -15728,25 +15728,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84">
+      <c r="A76" s="90">
         <v>1</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="75" t="s">
+      <c r="E76" s="91" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="91">
+      <c r="G76" s="92">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -15777,21 +15777,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="123">
+      <c r="U76" s="58">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="91"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -15820,18 +15820,18 @@
         <f t="shared" ref="T77:T78" si="16">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="122"/>
+      <c r="U77" s="59"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="91"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -15860,7 +15860,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U78" s="122"/>
+      <c r="U78" s="59"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -15880,10 +15880,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="105" t="s">
+      <c r="R79" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="106"/>
+      <c r="S79" s="94"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -15946,89 +15946,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="96" t="s">
+      <c r="E82" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="81" t="s">
+      <c r="G82" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="92" t="s">
+      <c r="H82" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="92" t="s">
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92" t="s">
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92" t="s">
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="99" t="s">
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="100" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="101"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="100" t="s">
+      <c r="I83" s="63"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="100" t="s">
+      <c r="L83" s="63"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O83" s="101"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="100" t="s">
+      <c r="O83" s="63"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R83" s="101"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="99"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="64"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -16065,15 +16065,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="99"/>
+      <c r="T84" s="61"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="95"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -16118,25 +16118,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+      <c r="A86" s="90">
         <v>1</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="75" t="s">
+      <c r="E86" s="91" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="92">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -16167,21 +16167,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="123">
+      <c r="U86" s="58">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="91"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -16210,18 +16210,18 @@
         <f t="shared" ref="T87:T88" si="21">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="122"/>
+      <c r="U87" s="59"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="91"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -16250,20 +16250,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U88" s="122"/>
+      <c r="U88" s="59"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="104" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="91">
+      <c r="G89" s="92">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -16294,21 +16294,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="123">
+      <c r="U89" s="58">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="104"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="91"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -16337,18 +16337,18 @@
         <f t="shared" ref="T90:T91" si="22">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="122"/>
+      <c r="U90" s="59"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="95"/>
       <c r="F91" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -16377,20 +16377,20 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U91" s="122"/>
+      <c r="U91" s="59"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="104" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="92">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -16421,21 +16421,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="123">
+      <c r="U92" s="58">
         <f t="shared" ref="U92" si="23">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="104"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -16464,18 +16464,18 @@
         <f t="shared" ref="T93:T94" si="24">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="122"/>
+      <c r="U93" s="59"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="104"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="91"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -16504,28 +16504,28 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U94" s="122"/>
+      <c r="U94" s="59"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="91" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="91">
+      <c r="G95" s="92">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -16556,21 +16556,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="123">
+      <c r="U95" s="58">
         <f t="shared" ref="U95" si="25">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="91"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -16599,18 +16599,18 @@
         <f t="shared" ref="T96:T97" si="26">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="122"/>
+      <c r="U96" s="59"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="91"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -16639,20 +16639,20 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U97" s="122"/>
+      <c r="U97" s="59"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="104" t="s">
+      <c r="A98" s="90"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="91">
+      <c r="G98" s="92">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -16683,21 +16683,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="123">
+      <c r="U98" s="58">
         <f t="shared" ref="U98" si="27">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="104"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="91"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -16726,18 +16726,18 @@
         <f t="shared" ref="T99:T100" si="28">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="122"/>
+      <c r="U99" s="59"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="104"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="91"/>
+      <c r="G100" s="92"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -16766,7 +16766,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U100" s="122"/>
+      <c r="U100" s="59"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -16784,12 +16784,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="103" t="s">
+      <c r="P101" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="103"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -16811,12 +16811,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="103" t="s">
+      <c r="P102" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="103"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -16838,12 +16838,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="103" t="s">
+      <c r="P103" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="103"/>
-      <c r="R103" s="103"/>
-      <c r="S103" s="103"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="96"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -16865,12 +16865,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="103" t="s">
+      <c r="P104" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="96"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -16898,89 +16898,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="93" t="s">
+      <c r="C106" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="93" t="s">
+      <c r="D106" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="81" t="s">
+      <c r="G106" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="92" t="s">
+      <c r="H106" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92" t="s">
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92" t="s">
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="92"/>
-      <c r="P106" s="92"/>
-      <c r="Q106" s="92" t="s">
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="99" t="s">
+      <c r="R106" s="60"/>
+      <c r="S106" s="60"/>
+      <c r="T106" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="100" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I107" s="101"/>
-      <c r="J107" s="102"/>
-      <c r="K107" s="100" t="s">
+      <c r="I107" s="63"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L107" s="101"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="100" t="s">
+      <c r="L107" s="63"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O107" s="101"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="100" t="s">
+      <c r="O107" s="63"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R107" s="101"/>
-      <c r="S107" s="102"/>
-      <c r="T107" s="99"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="61"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="94"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -17017,15 +17017,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="99"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="95"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -17070,25 +17070,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
+      <c r="A110" s="90">
         <v>1</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="88" t="s">
+      <c r="E110" s="80" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="92">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -17119,21 +17119,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="123">
+      <c r="U110" s="58">
         <f t="shared" ref="U110" si="29">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="91"/>
+      <c r="G111" s="92"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -17162,18 +17162,18 @@
         <f t="shared" ref="T111:T112" si="34">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="122"/>
+      <c r="U111" s="59"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="90"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="91"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -17202,7 +17202,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U112" s="122"/>
+      <c r="U112" s="59"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -17248,17 +17248,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="76" t="s">
+      <c r="P114" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="81" t="s">
+      <c r="Q114" s="98"/>
+      <c r="R114" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="81" t="s">
+      <c r="S114" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="81" t="s">
+      <c r="T114" s="73" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -17285,11 +17285,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
+      <c r="P115" s="99"/>
+      <c r="Q115" s="100"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -17314,8 +17314,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="80"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="102"/>
       <c r="R116" s="53"/>
       <c r="S116" s="53" t="s">
         <v>131</v>
@@ -17347,10 +17347,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="75" t="s">
+      <c r="P117" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="75"/>
+      <c r="Q117" s="91"/>
       <c r="R117" s="55" t="s">
         <v>7</v>
       </c>
@@ -17378,8 +17378,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="75"/>
+      <c r="P118" s="91"/>
+      <c r="Q118" s="91"/>
       <c r="R118" s="55" t="s">
         <v>8</v>
       </c>
@@ -17407,8 +17407,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
+      <c r="P119" s="91"/>
+      <c r="Q119" s="91"/>
       <c r="R119" s="55" t="s">
         <v>9</v>
       </c>
@@ -17436,12 +17436,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="83" t="s">
+      <c r="P120" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
-      <c r="S120" s="83"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -17485,17 +17485,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="76" t="s">
+      <c r="P122" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="81" t="s">
+      <c r="Q122" s="98"/>
+      <c r="R122" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="81" t="s">
+      <c r="S122" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="66" t="s">
+      <c r="T122" s="103" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -17522,11 +17522,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="78"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="82"/>
+      <c r="P123" s="99"/>
+      <c r="Q123" s="100"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="104"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -17551,8 +17551,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="80"/>
+      <c r="P124" s="101"/>
+      <c r="Q124" s="102"/>
       <c r="R124" s="53"/>
       <c r="S124" s="53" t="s">
         <v>131</v>
@@ -17584,10 +17584,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="75" t="s">
+      <c r="P125" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="75"/>
+      <c r="Q125" s="91"/>
       <c r="R125" s="55" t="s">
         <v>7</v>
       </c>
@@ -17615,8 +17615,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
+      <c r="P126" s="91"/>
+      <c r="Q126" s="91"/>
       <c r="R126" s="55" t="s">
         <v>8</v>
       </c>
@@ -17644,8 +17644,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="75"/>
-      <c r="Q127" s="75"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="91"/>
       <c r="R127" s="55" t="s">
         <v>9</v>
       </c>
@@ -17673,12 +17673,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="83" t="s">
+      <c r="P128" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="83"/>
-      <c r="S128" s="83"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -17715,22 +17715,22 @@
       <c r="C130" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="63" t="s">
+      <c r="D130" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65" t="s">
+      <c r="E130" s="112"/>
+      <c r="F130" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="66"/>
-      <c r="O130" s="66"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="103"/>
+      <c r="J130" s="103"/>
+      <c r="K130" s="103"/>
+      <c r="L130" s="103"/>
+      <c r="M130" s="103"/>
+      <c r="N130" s="103"/>
+      <c r="O130" s="103"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -17738,84 +17738,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="67">
+      <c r="A131" s="113">
         <v>1</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="116" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="73">
+      <c r="D131" s="119">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="75" t="s">
+      <c r="E131" s="120"/>
+      <c r="F131" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="91"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="91"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="71"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="119">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="74"/>
-      <c r="F132" s="75" t="s">
+      <c r="E132" s="120"/>
+      <c r="F132" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="91"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="73">
+      <c r="D133" s="119">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="75" t="s">
+      <c r="E133" s="120"/>
+      <c r="F133" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="91"/>
+      <c r="N133" s="91"/>
+      <c r="O133" s="91"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -17823,15 +17823,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="58" t="s">
+      <c r="B134" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60">
+      <c r="C134" s="107"/>
+      <c r="D134" s="108">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="61"/>
+      <c r="E134" s="109"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -17843,12 +17843,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="62" t="s">
+      <c r="Q134" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="62"/>
-      <c r="S134" s="62"/>
-      <c r="T134" s="62"/>
+      <c r="R134" s="110"/>
+      <c r="S134" s="110"/>
+      <c r="T134" s="110"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -17867,12 +17867,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
+      <c r="R135" s="110"/>
+      <c r="S135" s="110"/>
+      <c r="T135" s="110"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -18030,22 +18030,168 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:S35"/>
@@ -18064,168 +18210,22 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
@@ -19402,52 +19402,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -20060,89 +20060,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92" t="s">
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="99" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="119" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="100" t="s">
+      <c r="I36" s="122"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="100" t="s">
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="100" t="s">
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="101"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="99"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -20179,15 +20179,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="99"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="95"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -20232,25 +20232,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="74">
         <v>1</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G39" s="83">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -20281,21 +20281,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="123">
+      <c r="U39" s="58">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="112"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -20324,18 +20324,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="122"/>
+      <c r="U40" s="59"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -20364,28 +20364,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="122"/>
+      <c r="U41" s="59"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+      <c r="A42" s="74">
         <v>2</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="80" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="83">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -20416,21 +20416,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="123">
+      <c r="U42" s="58">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -20459,18 +20459,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="122"/>
+      <c r="U43" s="59"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="113"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -20499,28 +20499,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="122"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+      <c r="A45" s="74">
         <v>3</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="80" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="83">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -20551,21 +20551,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="123">
+      <c r="U45" s="58">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="112"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -20594,18 +20594,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="122"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="113"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -20634,28 +20634,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="122"/>
+      <c r="U47" s="59"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108">
+      <c r="A48" s="74">
         <v>4</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="80" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="83">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -20686,21 +20686,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="123">
+      <c r="U48" s="58">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -20729,18 +20729,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="122"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="113"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -20769,28 +20769,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="122"/>
+      <c r="U50" s="59"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+      <c r="A51" s="74">
         <v>5</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="80" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="111">
+      <c r="G51" s="83">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -20821,21 +20821,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="123">
+      <c r="U51" s="58">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="112"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -20864,18 +20864,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="122"/>
+      <c r="U52" s="59"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="113"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -20904,22 +20904,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="122"/>
+      <c r="U53" s="59"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="80" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="111">
+      <c r="G54" s="83">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -20950,21 +20950,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="123">
+      <c r="U54" s="58">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -20993,18 +20993,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="122"/>
+      <c r="U55" s="59"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="113"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -21033,28 +21033,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="122"/>
+      <c r="U56" s="59"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="74">
         <v>6</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="83">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -21085,21 +21085,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="123">
+      <c r="U57" s="58">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -21128,18 +21128,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="122"/>
+      <c r="U58" s="59"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="113"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -21168,24 +21168,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="122"/>
+      <c r="U59" s="59"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="85" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="77" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="111">
+      <c r="G60" s="83">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -21216,21 +21216,21 @@
         <f t="shared" ref="T60:T62" si="11">$G$39*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="123">
+      <c r="U60" s="58">
         <f t="shared" ref="U60" si="12">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="86"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -21259,18 +21259,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U61" s="122"/>
+      <c r="U61" s="59"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="87"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="113"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -21299,28 +21299,28 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U62" s="122"/>
+      <c r="U62" s="59"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108">
+      <c r="A63" s="74">
         <v>7</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="80" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="83">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -21351,21 +21351,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="123">
+      <c r="U63" s="58">
         <f t="shared" ref="U63" si="13">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="112"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -21394,18 +21394,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="122"/>
+      <c r="U64" s="59"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="113"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -21434,7 +21434,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="122"/>
+      <c r="U65" s="59"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -21453,11 +21453,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="107" t="s">
+      <c r="Q66" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -21480,11 +21480,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="107" t="s">
+      <c r="Q67" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -21507,11 +21507,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="107" t="s">
+      <c r="Q68" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -21534,11 +21534,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="107" t="s">
+      <c r="Q69" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -21601,89 +21601,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92" t="s">
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92" t="s">
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92" t="s">
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="99" t="s">
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="119" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="I73" s="120"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="100" t="s">
+      <c r="I73" s="122"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="101"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="100" t="s">
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="101"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="100" t="s">
+      <c r="O73" s="63"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R73" s="101"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="99"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="61"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -21720,15 +21720,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="99"/>
+      <c r="T74" s="61"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="95"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="69"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -21773,25 +21773,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84">
+      <c r="A76" s="90">
         <v>1</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="75" t="s">
+      <c r="E76" s="91" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="91">
+      <c r="G76" s="92">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -21822,21 +21822,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="123">
+      <c r="U76" s="58">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="91"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -21865,18 +21865,18 @@
         <f t="shared" ref="T77:T78" si="18">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="122"/>
+      <c r="U77" s="59"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="91"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -21905,7 +21905,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U78" s="122"/>
+      <c r="U78" s="59"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -21925,10 +21925,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="105" t="s">
+      <c r="R79" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="106"/>
+      <c r="S79" s="94"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -21991,89 +21991,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="96" t="s">
+      <c r="E82" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="81" t="s">
+      <c r="G82" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="92" t="s">
+      <c r="H82" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="92" t="s">
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92" t="s">
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92" t="s">
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="99" t="s">
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="119" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="I83" s="120"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="100" t="s">
+      <c r="I83" s="122"/>
+      <c r="J83" s="123"/>
+      <c r="K83" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="100" t="s">
+      <c r="L83" s="63"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O83" s="101"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="100" t="s">
+      <c r="O83" s="63"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R83" s="101"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="99"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="64"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -22110,15 +22110,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="99"/>
+      <c r="T84" s="61"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="95"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -22163,25 +22163,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+      <c r="A86" s="90">
         <v>1</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="75" t="s">
+      <c r="E86" s="91" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="92">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -22212,21 +22212,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="123">
+      <c r="U86" s="58">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="91"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -22255,18 +22255,18 @@
         <f t="shared" ref="T87:T88" si="23">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="122"/>
+      <c r="U87" s="59"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="91"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -22295,20 +22295,20 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U88" s="122"/>
+      <c r="U88" s="59"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="104" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="91">
+      <c r="G89" s="92">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -22339,21 +22339,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="123">
+      <c r="U89" s="58">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="104"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="91"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -22382,18 +22382,18 @@
         <f t="shared" ref="T90:T91" si="24">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="122"/>
+      <c r="U90" s="59"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="95"/>
       <c r="F91" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -22422,20 +22422,20 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U91" s="122"/>
+      <c r="U91" s="59"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="104" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="92">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -22466,21 +22466,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="123">
+      <c r="U92" s="58">
         <f t="shared" ref="U92" si="25">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="104"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -22509,18 +22509,18 @@
         <f t="shared" ref="T93:T94" si="26">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="122"/>
+      <c r="U93" s="59"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="104"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="91"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -22549,28 +22549,28 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U94" s="122"/>
+      <c r="U94" s="59"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="91" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="91">
+      <c r="G95" s="92">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -22601,21 +22601,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="123">
+      <c r="U95" s="58">
         <f t="shared" ref="U95" si="27">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="91"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -22644,18 +22644,18 @@
         <f t="shared" ref="T96:T97" si="28">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="122"/>
+      <c r="U96" s="59"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="91"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -22684,20 +22684,20 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U97" s="122"/>
+      <c r="U97" s="59"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="104" t="s">
+      <c r="A98" s="90"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="91">
+      <c r="G98" s="92">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -22728,21 +22728,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="123">
+      <c r="U98" s="58">
         <f t="shared" ref="U98" si="29">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="104"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="91"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -22771,18 +22771,18 @@
         <f t="shared" ref="T99:T100" si="30">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="122"/>
+      <c r="U99" s="59"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="104"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="91"/>
+      <c r="G100" s="92"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -22811,7 +22811,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U100" s="122"/>
+      <c r="U100" s="59"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -22829,12 +22829,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="103" t="s">
+      <c r="P101" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="103"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -22856,12 +22856,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="103" t="s">
+      <c r="P102" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="103"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -22883,12 +22883,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="103" t="s">
+      <c r="P103" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="103"/>
-      <c r="R103" s="103"/>
-      <c r="S103" s="103"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="96"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -22910,12 +22910,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="103" t="s">
+      <c r="P104" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="96"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -22943,89 +22943,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="93" t="s">
+      <c r="C106" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="93" t="s">
+      <c r="D106" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="81" t="s">
+      <c r="G106" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="92" t="s">
+      <c r="H106" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92" t="s">
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92" t="s">
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="92"/>
-      <c r="P106" s="92"/>
-      <c r="Q106" s="92" t="s">
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="99" t="s">
+      <c r="R106" s="60"/>
+      <c r="S106" s="60"/>
+      <c r="T106" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="119" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="I107" s="120"/>
-      <c r="J107" s="121"/>
-      <c r="K107" s="100" t="s">
+      <c r="I107" s="122"/>
+      <c r="J107" s="123"/>
+      <c r="K107" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="101"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="100" t="s">
+      <c r="L107" s="63"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="101"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="100" t="s">
+      <c r="O107" s="63"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="101"/>
-      <c r="S107" s="102"/>
-      <c r="T107" s="99"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="61"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="94"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -23062,15 +23062,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="99"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="95"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -23115,25 +23115,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
+      <c r="A110" s="90">
         <v>1</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="88" t="s">
+      <c r="E110" s="80" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="92">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -23164,21 +23164,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="123">
+      <c r="U110" s="58">
         <f t="shared" ref="U110" si="31">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="91"/>
+      <c r="G111" s="92"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -23207,18 +23207,18 @@
         <f t="shared" ref="T111:T112" si="36">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="122"/>
+      <c r="U111" s="59"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="90"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="91"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -23247,7 +23247,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U112" s="122"/>
+      <c r="U112" s="59"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -23293,17 +23293,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="76" t="s">
+      <c r="P114" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="81" t="s">
+      <c r="Q114" s="98"/>
+      <c r="R114" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="81" t="s">
+      <c r="S114" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="81" t="s">
+      <c r="T114" s="73" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -23330,11 +23330,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
+      <c r="P115" s="99"/>
+      <c r="Q115" s="100"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -23359,8 +23359,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="80"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="102"/>
       <c r="R116" s="41"/>
       <c r="S116" s="41" t="s">
         <v>131</v>
@@ -23392,10 +23392,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="75" t="s">
+      <c r="P117" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="75"/>
+      <c r="Q117" s="91"/>
       <c r="R117" s="43" t="s">
         <v>7</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="75"/>
+      <c r="P118" s="91"/>
+      <c r="Q118" s="91"/>
       <c r="R118" s="43" t="s">
         <v>8</v>
       </c>
@@ -23452,8 +23452,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
+      <c r="P119" s="91"/>
+      <c r="Q119" s="91"/>
       <c r="R119" s="43" t="s">
         <v>9</v>
       </c>
@@ -23481,12 +23481,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="83" t="s">
+      <c r="P120" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
-      <c r="S120" s="83"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -23530,17 +23530,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="76" t="s">
+      <c r="P122" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="81" t="s">
+      <c r="Q122" s="98"/>
+      <c r="R122" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="81" t="s">
+      <c r="S122" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="66" t="s">
+      <c r="T122" s="103" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -23567,11 +23567,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="78"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="82"/>
+      <c r="P123" s="99"/>
+      <c r="Q123" s="100"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="104"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -23596,8 +23596,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="80"/>
+      <c r="P124" s="101"/>
+      <c r="Q124" s="102"/>
       <c r="R124" s="41"/>
       <c r="S124" s="41" t="s">
         <v>131</v>
@@ -23629,10 +23629,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="75" t="s">
+      <c r="P125" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="75"/>
+      <c r="Q125" s="91"/>
       <c r="R125" s="43" t="s">
         <v>7</v>
       </c>
@@ -23660,8 +23660,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
+      <c r="P126" s="91"/>
+      <c r="Q126" s="91"/>
       <c r="R126" s="43" t="s">
         <v>8</v>
       </c>
@@ -23689,8 +23689,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="75"/>
-      <c r="Q127" s="75"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="91"/>
       <c r="R127" s="43" t="s">
         <v>9</v>
       </c>
@@ -23718,12 +23718,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="83" t="s">
+      <c r="P128" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="83"/>
-      <c r="S128" s="83"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -23760,22 +23760,22 @@
       <c r="C130" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="63" t="s">
+      <c r="D130" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65" t="s">
+      <c r="E130" s="112"/>
+      <c r="F130" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="66"/>
-      <c r="O130" s="66"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="103"/>
+      <c r="J130" s="103"/>
+      <c r="K130" s="103"/>
+      <c r="L130" s="103"/>
+      <c r="M130" s="103"/>
+      <c r="N130" s="103"/>
+      <c r="O130" s="103"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -23783,84 +23783,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="67">
+      <c r="A131" s="113">
         <v>1</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="116" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="73">
+      <c r="D131" s="119">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="75" t="s">
+      <c r="E131" s="120"/>
+      <c r="F131" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="91"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="91"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="71"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="119">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="74"/>
-      <c r="F132" s="75" t="s">
+      <c r="E132" s="120"/>
+      <c r="F132" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="91"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="73">
+      <c r="D133" s="119">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="75" t="s">
+      <c r="E133" s="120"/>
+      <c r="F133" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="91"/>
+      <c r="N133" s="91"/>
+      <c r="O133" s="91"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -23868,15 +23868,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="58" t="s">
+      <c r="B134" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60">
+      <c r="C134" s="107"/>
+      <c r="D134" s="108">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="61"/>
+      <c r="E134" s="109"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -23888,12 +23888,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="62" t="s">
+      <c r="Q134" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="62"/>
-      <c r="S134" s="62"/>
-      <c r="T134" s="62"/>
+      <c r="R134" s="110"/>
+      <c r="S134" s="110"/>
+      <c r="T134" s="110"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -23912,12 +23912,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
+      <c r="R135" s="110"/>
+      <c r="S135" s="110"/>
+      <c r="T135" s="110"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -24075,22 +24075,168 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:S35"/>
@@ -24109,168 +24255,22 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">

--- a/core/core-api/src/main/resources/excel-templates/BTP.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/BTP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BM ca ngày" sheetId="30" r:id="rId1"/>
@@ -6555,7 +6555,7 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>(BTP_4_6_OFFPEAK)</t>
+          <t>(BTP_4_5_OFFPEAK)</t>
         </r>
       </text>
     </comment>
@@ -11669,150 +11669,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11832,6 +11688,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11856,6 +11718,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12221,7 +12221,7 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E54" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="E24" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="U76" sqref="U76:U78"/>
     </sheetView>
   </sheetViews>
@@ -13357,52 +13357,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -14015,89 +14015,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60" t="s">
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60" t="s">
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60" t="s">
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61" t="s">
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="62" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="62" t="s">
+      <c r="I36" s="101"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="62" t="s">
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="62" t="s">
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="61"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="99"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -14134,15 +14134,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="61"/>
+      <c r="T37" s="99"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="69"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -14187,25 +14187,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="108">
         <v>1</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="88" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="111">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -14236,21 +14236,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="58">
+      <c r="U39" s="119">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="84"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -14279,18 +14279,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="59"/>
+      <c r="U40" s="120"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -14319,28 +14319,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="59"/>
+      <c r="U41" s="120"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="108">
         <v>2</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="111">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -14371,21 +14371,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="58">
+      <c r="U42" s="119">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -14414,18 +14414,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="59"/>
+      <c r="U43" s="120"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -14454,28 +14454,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="59"/>
+      <c r="U44" s="120"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+      <c r="A45" s="108">
         <v>3</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="88" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="111">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -14506,21 +14506,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="58">
+      <c r="U45" s="119">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -14549,18 +14549,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="59"/>
+      <c r="U46" s="120"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="85"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -14589,28 +14589,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="59"/>
+      <c r="U47" s="120"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74">
+      <c r="A48" s="108">
         <v>4</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="88" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="111">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -14641,21 +14641,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="119">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="84"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -14684,18 +14684,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="59"/>
+      <c r="U49" s="120"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="85"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -14724,28 +14724,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="59"/>
+      <c r="U50" s="120"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+      <c r="A51" s="108">
         <v>5</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="88" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="111">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -14776,21 +14776,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="58">
+      <c r="U51" s="119">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="112"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -14819,18 +14819,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="59"/>
+      <c r="U52" s="120"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -14859,22 +14859,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="59"/>
+      <c r="U53" s="120"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="80" t="s">
+      <c r="A54" s="109"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="88" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="111">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -14905,21 +14905,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="58">
+      <c r="U54" s="119">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -14948,18 +14948,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="59"/>
+      <c r="U55" s="120"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="85"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -14988,28 +14988,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="59"/>
+      <c r="U56" s="120"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+      <c r="A57" s="108">
         <v>6</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="111">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -15040,21 +15040,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="119">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="112"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -15083,18 +15083,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="59"/>
+      <c r="U58" s="120"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="85"/>
+      <c r="G59" s="113"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -15123,24 +15123,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="59"/>
+      <c r="U59" s="120"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="77" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="77" t="s">
+      <c r="E60" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="111">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -15171,21 +15171,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U60" s="58">
+      <c r="U60" s="119">
         <f t="shared" ref="U60" si="10">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="78"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="84"/>
+      <c r="G61" s="112"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -15214,18 +15214,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U61" s="59"/>
+      <c r="U61" s="120"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="79"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="85"/>
+      <c r="G62" s="113"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -15254,28 +15254,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="59"/>
+      <c r="U62" s="120"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+      <c r="A63" s="108">
         <v>7</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="88" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="83">
+      <c r="G63" s="111">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -15306,21 +15306,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="58">
+      <c r="U63" s="119">
         <f t="shared" ref="U63" si="11">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="112"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -15349,18 +15349,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="59"/>
+      <c r="U64" s="120"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="85"/>
+      <c r="G65" s="113"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -15389,7 +15389,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="59"/>
+      <c r="U65" s="120"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -15408,11 +15408,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="89" t="s">
+      <c r="Q66" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -15435,11 +15435,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="89" t="s">
+      <c r="Q67" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -15462,11 +15462,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="89" t="s">
+      <c r="Q68" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -15489,11 +15489,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="89" t="s">
+      <c r="Q69" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -15556,89 +15556,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="60" t="s">
+      <c r="H72" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60" t="s">
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60" t="s">
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60" t="s">
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="61" t="s">
+      <c r="R72" s="92"/>
+      <c r="S72" s="92"/>
+      <c r="T72" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="62" t="s">
+      <c r="A73" s="94"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="63"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="62" t="s">
+      <c r="I73" s="101"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="62" t="s">
+      <c r="L73" s="101"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O73" s="63"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="62" t="s">
+      <c r="O73" s="101"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R73" s="63"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="61"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="99"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -15675,15 +15675,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="61"/>
+      <c r="T74" s="99"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="69"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -15728,25 +15728,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="84">
         <v>1</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="75" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="92">
+      <c r="G76" s="91">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -15777,21 +15777,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="58">
+      <c r="U76" s="119">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="92"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -15820,18 +15820,18 @@
         <f t="shared" ref="T77:T78" si="16">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="59"/>
+      <c r="U77" s="120"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
       <c r="F78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="92"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -15860,7 +15860,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U78" s="59"/>
+      <c r="U78" s="120"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -15880,10 +15880,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="93" t="s">
+      <c r="R79" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="94"/>
+      <c r="S79" s="106"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -15946,89 +15946,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="73" t="s">
+      <c r="G82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60" t="s">
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60" t="s">
+      <c r="L82" s="92"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60" t="s">
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="61" t="s">
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="62" t="s">
+      <c r="A83" s="94"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="63"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="62" t="s">
+      <c r="I83" s="101"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="62" t="s">
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O83" s="63"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="62" t="s">
+      <c r="O83" s="101"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R83" s="63"/>
-      <c r="S83" s="64"/>
-      <c r="T83" s="61"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="99"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -16065,15 +16065,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="61"/>
+      <c r="T84" s="99"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -16118,25 +16118,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90">
+      <c r="A86" s="84">
         <v>1</v>
       </c>
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="75" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="92">
+      <c r="G86" s="91">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -16167,21 +16167,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="58">
+      <c r="U86" s="119">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="75"/>
       <c r="F87" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -16210,18 +16210,18 @@
         <f t="shared" ref="T87:T88" si="21">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="59"/>
+      <c r="U87" s="120"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="91"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="75"/>
       <c r="F88" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="92"/>
+      <c r="G88" s="91"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -16250,20 +16250,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U88" s="59"/>
+      <c r="U88" s="120"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="95" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="104" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -16294,21 +16294,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="58">
+      <c r="U89" s="119">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="95"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="92"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -16337,18 +16337,18 @@
         <f t="shared" ref="T90:T91" si="22">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="59"/>
+      <c r="U90" s="120"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="95"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="92"/>
+      <c r="G91" s="91"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -16377,20 +16377,20 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U91" s="59"/>
+      <c r="U91" s="120"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="95" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="104" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="92">
+      <c r="G92" s="91">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -16421,21 +16421,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="58">
+      <c r="U92" s="119">
         <f t="shared" ref="U92" si="23">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="95"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="92"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -16464,18 +16464,18 @@
         <f t="shared" ref="T93:T94" si="24">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="59"/>
+      <c r="U93" s="120"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="95"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="92"/>
+      <c r="G94" s="91"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -16504,28 +16504,28 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U94" s="59"/>
+      <c r="U94" s="120"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="84">
         <v>2</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="92">
+      <c r="G95" s="91">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -16556,21 +16556,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="58">
+      <c r="U95" s="119">
         <f t="shared" ref="U95" si="25">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
       <c r="F96" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="92"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -16599,18 +16599,18 @@
         <f t="shared" ref="T96:T97" si="26">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="59"/>
+      <c r="U96" s="120"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="92"/>
+      <c r="G97" s="91"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -16639,20 +16639,20 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U97" s="59"/>
+      <c r="U97" s="120"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="95" t="s">
+      <c r="A98" s="84"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="92">
+      <c r="G98" s="91">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -16683,21 +16683,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="58">
+      <c r="U98" s="119">
         <f t="shared" ref="U98" si="27">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="95"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="104"/>
       <c r="F99" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="92"/>
+      <c r="G99" s="91"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -16726,18 +16726,18 @@
         <f t="shared" ref="T99:T100" si="28">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="59"/>
+      <c r="U99" s="120"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="95"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="104"/>
       <c r="F100" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="92"/>
+      <c r="G100" s="91"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -16766,7 +16766,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U100" s="59"/>
+      <c r="U100" s="120"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -16784,12 +16784,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="96" t="s">
+      <c r="P101" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -16811,12 +16811,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="96" t="s">
+      <c r="P102" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="103"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -16838,12 +16838,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="96" t="s">
+      <c r="P103" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
-      <c r="S103" s="96"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -16865,12 +16865,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="96" t="s">
+      <c r="P104" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
-      <c r="S104" s="96"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -16898,89 +16898,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="70" t="s">
+      <c r="E106" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60" t="s">
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60" t="s">
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="60"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60" t="s">
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
+      <c r="Q106" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="60"/>
-      <c r="S106" s="60"/>
-      <c r="T106" s="61" t="s">
+      <c r="R106" s="92"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="62" t="s">
+      <c r="A107" s="94"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I107" s="63"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="62" t="s">
+      <c r="I107" s="101"/>
+      <c r="J107" s="102"/>
+      <c r="K107" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L107" s="63"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="62" t="s">
+      <c r="L107" s="101"/>
+      <c r="M107" s="102"/>
+      <c r="N107" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O107" s="63"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="62" t="s">
+      <c r="O107" s="101"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R107" s="63"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="61"/>
+      <c r="R107" s="101"/>
+      <c r="S107" s="102"/>
+      <c r="T107" s="99"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -17017,15 +17017,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="61"/>
+      <c r="T108" s="99"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="95"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -17070,25 +17070,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="90">
+      <c r="A110" s="84">
         <v>1</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="77" t="s">
+      <c r="C110" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="77" t="s">
+      <c r="D110" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="80" t="s">
+      <c r="E110" s="88" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="92">
+      <c r="G110" s="91">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -17119,21 +17119,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="58">
+      <c r="U110" s="119">
         <f t="shared" ref="U110" si="29">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="81"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="92"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -17162,18 +17162,18 @@
         <f t="shared" ref="T111:T112" si="34">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="59"/>
+      <c r="U111" s="120"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="82"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="90"/>
       <c r="F112" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="91"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -17202,7 +17202,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U112" s="59"/>
+      <c r="U112" s="120"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -17248,17 +17248,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="97" t="s">
+      <c r="P114" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="73" t="s">
+      <c r="Q114" s="77"/>
+      <c r="R114" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="73" t="s">
+      <c r="S114" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="73" t="s">
+      <c r="T114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -17285,11 +17285,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="100"/>
-      <c r="R115" s="73"/>
-      <c r="S115" s="73"/>
-      <c r="T115" s="73"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="81"/>
+      <c r="S115" s="81"/>
+      <c r="T115" s="81"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -17314,8 +17314,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="101"/>
-      <c r="Q116" s="102"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="80"/>
       <c r="R116" s="53"/>
       <c r="S116" s="53" t="s">
         <v>131</v>
@@ -17347,10 +17347,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="91" t="s">
+      <c r="P117" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="91"/>
+      <c r="Q117" s="75"/>
       <c r="R117" s="55" t="s">
         <v>7</v>
       </c>
@@ -17378,8 +17378,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="91"/>
-      <c r="Q118" s="91"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
       <c r="R118" s="55" t="s">
         <v>8</v>
       </c>
@@ -17407,8 +17407,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="91"/>
-      <c r="Q119" s="91"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
       <c r="R119" s="55" t="s">
         <v>9</v>
       </c>
@@ -17436,12 +17436,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="105" t="s">
+      <c r="P120" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="83"/>
+      <c r="S120" s="83"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -17485,17 +17485,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="97" t="s">
+      <c r="P122" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="98"/>
-      <c r="R122" s="73" t="s">
+      <c r="Q122" s="77"/>
+      <c r="R122" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="73" t="s">
+      <c r="S122" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="103" t="s">
+      <c r="T122" s="66" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -17522,11 +17522,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="99"/>
-      <c r="Q123" s="100"/>
-      <c r="R123" s="73"/>
-      <c r="S123" s="73"/>
-      <c r="T123" s="104"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
+      <c r="T123" s="82"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -17551,8 +17551,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="101"/>
-      <c r="Q124" s="102"/>
+      <c r="P124" s="79"/>
+      <c r="Q124" s="80"/>
       <c r="R124" s="53"/>
       <c r="S124" s="53" t="s">
         <v>131</v>
@@ -17584,10 +17584,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="91" t="s">
+      <c r="P125" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="91"/>
+      <c r="Q125" s="75"/>
       <c r="R125" s="55" t="s">
         <v>7</v>
       </c>
@@ -17615,8 +17615,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="91"/>
-      <c r="Q126" s="91"/>
+      <c r="P126" s="75"/>
+      <c r="Q126" s="75"/>
       <c r="R126" s="55" t="s">
         <v>8</v>
       </c>
@@ -17644,8 +17644,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="91"/>
-      <c r="Q127" s="91"/>
+      <c r="P127" s="75"/>
+      <c r="Q127" s="75"/>
       <c r="R127" s="55" t="s">
         <v>9</v>
       </c>
@@ -17673,12 +17673,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="105" t="s">
+      <c r="P128" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="105"/>
-      <c r="R128" s="105"/>
-      <c r="S128" s="105"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="83"/>
+      <c r="S128" s="83"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -17715,22 +17715,22 @@
       <c r="C130" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="111" t="s">
+      <c r="D130" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="112"/>
-      <c r="F130" s="99" t="s">
+      <c r="E130" s="64"/>
+      <c r="F130" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="103"/>
-      <c r="K130" s="103"/>
-      <c r="L130" s="103"/>
-      <c r="M130" s="103"/>
-      <c r="N130" s="103"/>
-      <c r="O130" s="103"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="66"/>
+      <c r="O130" s="66"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -17738,84 +17738,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="113">
+      <c r="A131" s="67">
         <v>1</v>
       </c>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="73">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="120"/>
-      <c r="F131" s="91" t="s">
+      <c r="E131" s="74"/>
+      <c r="F131" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
-      <c r="J131" s="91"/>
-      <c r="K131" s="91"/>
-      <c r="L131" s="91"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="114"/>
-      <c r="B132" s="117"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="73">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="120"/>
-      <c r="F132" s="91" t="s">
+      <c r="E132" s="74"/>
+      <c r="F132" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
-      <c r="O132" s="91"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="115"/>
-      <c r="B133" s="118"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="72"/>
       <c r="C133" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="73">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="120"/>
-      <c r="F133" s="91" t="s">
+      <c r="E133" s="74"/>
+      <c r="F133" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="91"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="91"/>
-      <c r="J133" s="91"/>
-      <c r="K133" s="91"/>
-      <c r="L133" s="91"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
-      <c r="O133" s="91"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -17823,15 +17823,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="107"/>
-      <c r="D134" s="108">
+      <c r="C134" s="59"/>
+      <c r="D134" s="60">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="109"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -17843,12 +17843,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="110" t="s">
+      <c r="Q134" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="110"/>
-      <c r="S134" s="110"/>
-      <c r="T134" s="110"/>
+      <c r="R134" s="62"/>
+      <c r="S134" s="62"/>
+      <c r="T134" s="62"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -17867,12 +17867,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="110" t="s">
+      <c r="Q135" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="110"/>
-      <c r="S135" s="110"/>
-      <c r="T135" s="110"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -18030,58 +18030,132 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
     <mergeCell ref="A95:A100"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
@@ -18100,132 +18174,58 @@
     <mergeCell ref="G89:G91"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
@@ -18266,8 +18266,8 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A98" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76:U78"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19402,52 +19402,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -20060,89 +20060,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60" t="s">
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60" t="s">
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60" t="s">
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61" t="s">
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="62" t="s">
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="62" t="s">
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="61"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="99"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -20179,15 +20179,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="61"/>
+      <c r="T37" s="99"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="69"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -20232,25 +20232,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="108">
         <v>1</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="88" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="111">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -20281,21 +20281,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="58">
+      <c r="U39" s="119">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="84"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -20324,18 +20324,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="59"/>
+      <c r="U40" s="120"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -20364,28 +20364,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="59"/>
+      <c r="U41" s="120"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="108">
         <v>2</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="111">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -20416,21 +20416,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="58">
+      <c r="U42" s="119">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -20459,18 +20459,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="59"/>
+      <c r="U43" s="120"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -20499,28 +20499,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="59"/>
+      <c r="U44" s="120"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+      <c r="A45" s="108">
         <v>3</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="88" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="111">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -20551,21 +20551,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="58">
+      <c r="U45" s="119">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -20594,18 +20594,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="59"/>
+      <c r="U46" s="120"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="85"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -20634,28 +20634,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="59"/>
+      <c r="U47" s="120"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74">
+      <c r="A48" s="108">
         <v>4</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="88" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="111">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -20686,21 +20686,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="119">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="84"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -20729,18 +20729,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="59"/>
+      <c r="U49" s="120"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="85"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -20769,28 +20769,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="59"/>
+      <c r="U50" s="120"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+      <c r="A51" s="108">
         <v>5</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="88" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="111">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -20821,21 +20821,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="58">
+      <c r="U51" s="119">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="112"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -20864,18 +20864,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="59"/>
+      <c r="U52" s="120"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -20904,22 +20904,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="59"/>
+      <c r="U53" s="120"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="80" t="s">
+      <c r="A54" s="109"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="88" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="111">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -20950,21 +20950,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="58">
+      <c r="U54" s="119">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -20993,18 +20993,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="59"/>
+      <c r="U55" s="120"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="85"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -21033,28 +21033,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="59"/>
+      <c r="U56" s="120"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+      <c r="A57" s="108">
         <v>6</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="111">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -21085,21 +21085,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="119">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="112"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -21128,18 +21128,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="59"/>
+      <c r="U58" s="120"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="85"/>
+      <c r="G59" s="113"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -21168,24 +21168,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="59"/>
+      <c r="U59" s="120"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="77" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="77" t="s">
+      <c r="E60" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="111">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -21216,21 +21216,21 @@
         <f t="shared" ref="T60:T62" si="11">$G$39*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="58">
+      <c r="U60" s="119">
         <f t="shared" ref="U60" si="12">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="78"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="84"/>
+      <c r="G61" s="112"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -21259,18 +21259,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U61" s="59"/>
+      <c r="U61" s="120"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="79"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="85"/>
+      <c r="G62" s="113"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -21299,28 +21299,28 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U62" s="59"/>
+      <c r="U62" s="120"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+      <c r="A63" s="108">
         <v>7</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="88" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="83">
+      <c r="G63" s="111">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -21351,21 +21351,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="58">
+      <c r="U63" s="119">
         <f t="shared" ref="U63" si="13">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="112"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -21394,18 +21394,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="59"/>
+      <c r="U64" s="120"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="85"/>
+      <c r="G65" s="113"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -21434,7 +21434,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="59"/>
+      <c r="U65" s="120"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -21453,11 +21453,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="89" t="s">
+      <c r="Q66" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -21480,11 +21480,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="89" t="s">
+      <c r="Q67" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -21507,11 +21507,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="89" t="s">
+      <c r="Q68" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -21534,11 +21534,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="89" t="s">
+      <c r="Q69" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -21601,89 +21601,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="60" t="s">
+      <c r="H72" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60" t="s">
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60" t="s">
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60" t="s">
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="61" t="s">
+      <c r="R72" s="92"/>
+      <c r="S72" s="92"/>
+      <c r="T72" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="73"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I73" s="122"/>
       <c r="J73" s="123"/>
-      <c r="K73" s="62" t="s">
+      <c r="K73" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="62" t="s">
+      <c r="L73" s="101"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="63"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="62" t="s">
+      <c r="O73" s="101"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R73" s="63"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="61"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="99"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -21720,15 +21720,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="61"/>
+      <c r="T74" s="99"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="69"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -21773,25 +21773,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="84">
         <v>1</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="75" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="92">
+      <c r="G76" s="91">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -21822,21 +21822,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="58">
+      <c r="U76" s="119">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="92"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -21865,18 +21865,18 @@
         <f t="shared" ref="T77:T78" si="18">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="59"/>
+      <c r="U77" s="120"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
       <c r="F78" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="92"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -21905,7 +21905,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U78" s="59"/>
+      <c r="U78" s="120"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -21925,10 +21925,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="93" t="s">
+      <c r="R79" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="94"/>
+      <c r="S79" s="106"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -21991,89 +21991,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="73" t="s">
+      <c r="G82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60" t="s">
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60" t="s">
+      <c r="L82" s="92"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60" t="s">
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="61" t="s">
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="73"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="81"/>
       <c r="H83" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I83" s="122"/>
       <c r="J83" s="123"/>
-      <c r="K83" s="62" t="s">
+      <c r="K83" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="62" t="s">
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O83" s="63"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="62" t="s">
+      <c r="O83" s="101"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R83" s="63"/>
-      <c r="S83" s="64"/>
-      <c r="T83" s="61"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="99"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -22110,15 +22110,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="61"/>
+      <c r="T84" s="99"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -22163,25 +22163,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90">
+      <c r="A86" s="84">
         <v>1</v>
       </c>
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="75" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="92">
+      <c r="G86" s="91">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -22212,21 +22212,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="58">
+      <c r="U86" s="119">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="75"/>
       <c r="F87" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -22255,18 +22255,18 @@
         <f t="shared" ref="T87:T88" si="23">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="59"/>
+      <c r="U87" s="120"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="91"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="75"/>
       <c r="F88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="92"/>
+      <c r="G88" s="91"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -22295,20 +22295,20 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U88" s="59"/>
+      <c r="U88" s="120"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="95" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="104" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -22339,21 +22339,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="58">
+      <c r="U89" s="119">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="95"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="92"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -22382,18 +22382,18 @@
         <f t="shared" ref="T90:T91" si="24">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="59"/>
+      <c r="U90" s="120"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="95"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="92"/>
+      <c r="G91" s="91"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -22422,20 +22422,20 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U91" s="59"/>
+      <c r="U91" s="120"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="95" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="104" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="92">
+      <c r="G92" s="91">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -22466,21 +22466,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="58">
+      <c r="U92" s="119">
         <f t="shared" ref="U92" si="25">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="95"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="92"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -22509,18 +22509,18 @@
         <f t="shared" ref="T93:T94" si="26">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="59"/>
+      <c r="U93" s="120"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="95"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="92"/>
+      <c r="G94" s="91"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -22549,28 +22549,28 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U94" s="59"/>
+      <c r="U94" s="120"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="84">
         <v>2</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="92">
+      <c r="G95" s="91">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -22601,21 +22601,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="58">
+      <c r="U95" s="119">
         <f t="shared" ref="U95" si="27">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
       <c r="F96" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="92"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -22644,18 +22644,18 @@
         <f t="shared" ref="T96:T97" si="28">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="59"/>
+      <c r="U96" s="120"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="92"/>
+      <c r="G97" s="91"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -22684,20 +22684,20 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U97" s="59"/>
+      <c r="U97" s="120"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="95" t="s">
+      <c r="A98" s="84"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="92">
+      <c r="G98" s="91">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -22728,21 +22728,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="58">
+      <c r="U98" s="119">
         <f t="shared" ref="U98" si="29">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="95"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="104"/>
       <c r="F99" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="92"/>
+      <c r="G99" s="91"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -22771,18 +22771,18 @@
         <f t="shared" ref="T99:T100" si="30">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="59"/>
+      <c r="U99" s="120"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="95"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="104"/>
       <c r="F100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="92"/>
+      <c r="G100" s="91"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -22811,7 +22811,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U100" s="59"/>
+      <c r="U100" s="120"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -22829,12 +22829,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="96" t="s">
+      <c r="P101" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -22856,12 +22856,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="96" t="s">
+      <c r="P102" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="103"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -22883,12 +22883,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="96" t="s">
+      <c r="P103" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
-      <c r="S103" s="96"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -22910,12 +22910,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="96" t="s">
+      <c r="P104" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
-      <c r="S104" s="96"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -22943,89 +22943,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="70" t="s">
+      <c r="E106" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60" t="s">
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60" t="s">
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="60"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60" t="s">
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
+      <c r="Q106" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="60"/>
-      <c r="S106" s="60"/>
-      <c r="T106" s="61" t="s">
+      <c r="R106" s="92"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="73"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="81"/>
       <c r="H107" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I107" s="122"/>
       <c r="J107" s="123"/>
-      <c r="K107" s="62" t="s">
+      <c r="K107" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="63"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="62" t="s">
+      <c r="L107" s="101"/>
+      <c r="M107" s="102"/>
+      <c r="N107" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="63"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="62" t="s">
+      <c r="O107" s="101"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="63"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="61"/>
+      <c r="R107" s="101"/>
+      <c r="S107" s="102"/>
+      <c r="T107" s="99"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -23062,15 +23062,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="61"/>
+      <c r="T108" s="99"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="95"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -23115,25 +23115,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="90">
+      <c r="A110" s="84">
         <v>1</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="77" t="s">
+      <c r="C110" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="77" t="s">
+      <c r="D110" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="80" t="s">
+      <c r="E110" s="88" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="92">
+      <c r="G110" s="91">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -23164,21 +23164,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="58">
+      <c r="U110" s="119">
         <f t="shared" ref="U110" si="31">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="81"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="92"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -23207,18 +23207,18 @@
         <f t="shared" ref="T111:T112" si="36">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="59"/>
+      <c r="U111" s="120"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="82"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="90"/>
       <c r="F112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="91"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -23247,7 +23247,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U112" s="59"/>
+      <c r="U112" s="120"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -23293,17 +23293,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="97" t="s">
+      <c r="P114" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="73" t="s">
+      <c r="Q114" s="77"/>
+      <c r="R114" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="73" t="s">
+      <c r="S114" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="73" t="s">
+      <c r="T114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -23330,11 +23330,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="100"/>
-      <c r="R115" s="73"/>
-      <c r="S115" s="73"/>
-      <c r="T115" s="73"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="81"/>
+      <c r="S115" s="81"/>
+      <c r="T115" s="81"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -23359,8 +23359,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="101"/>
-      <c r="Q116" s="102"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="80"/>
       <c r="R116" s="41"/>
       <c r="S116" s="41" t="s">
         <v>131</v>
@@ -23392,10 +23392,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="91" t="s">
+      <c r="P117" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="91"/>
+      <c r="Q117" s="75"/>
       <c r="R117" s="43" t="s">
         <v>7</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="91"/>
-      <c r="Q118" s="91"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
       <c r="R118" s="43" t="s">
         <v>8</v>
       </c>
@@ -23452,8 +23452,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="91"/>
-      <c r="Q119" s="91"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
       <c r="R119" s="43" t="s">
         <v>9</v>
       </c>
@@ -23481,12 +23481,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="105" t="s">
+      <c r="P120" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="83"/>
+      <c r="S120" s="83"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -23530,17 +23530,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="97" t="s">
+      <c r="P122" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="98"/>
-      <c r="R122" s="73" t="s">
+      <c r="Q122" s="77"/>
+      <c r="R122" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="73" t="s">
+      <c r="S122" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="103" t="s">
+      <c r="T122" s="66" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -23567,11 +23567,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="99"/>
-      <c r="Q123" s="100"/>
-      <c r="R123" s="73"/>
-      <c r="S123" s="73"/>
-      <c r="T123" s="104"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
+      <c r="T123" s="82"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -23596,8 +23596,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="101"/>
-      <c r="Q124" s="102"/>
+      <c r="P124" s="79"/>
+      <c r="Q124" s="80"/>
       <c r="R124" s="41"/>
       <c r="S124" s="41" t="s">
         <v>131</v>
@@ -23629,10 +23629,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="91" t="s">
+      <c r="P125" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="91"/>
+      <c r="Q125" s="75"/>
       <c r="R125" s="43" t="s">
         <v>7</v>
       </c>
@@ -23660,8 +23660,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="91"/>
-      <c r="Q126" s="91"/>
+      <c r="P126" s="75"/>
+      <c r="Q126" s="75"/>
       <c r="R126" s="43" t="s">
         <v>8</v>
       </c>
@@ -23689,8 +23689,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="91"/>
-      <c r="Q127" s="91"/>
+      <c r="P127" s="75"/>
+      <c r="Q127" s="75"/>
       <c r="R127" s="43" t="s">
         <v>9</v>
       </c>
@@ -23718,12 +23718,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="105" t="s">
+      <c r="P128" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="105"/>
-      <c r="R128" s="105"/>
-      <c r="S128" s="105"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="83"/>
+      <c r="S128" s="83"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -23760,22 +23760,22 @@
       <c r="C130" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="111" t="s">
+      <c r="D130" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="112"/>
-      <c r="F130" s="99" t="s">
+      <c r="E130" s="64"/>
+      <c r="F130" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="103"/>
-      <c r="K130" s="103"/>
-      <c r="L130" s="103"/>
-      <c r="M130" s="103"/>
-      <c r="N130" s="103"/>
-      <c r="O130" s="103"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="66"/>
+      <c r="O130" s="66"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -23783,84 +23783,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="113">
+      <c r="A131" s="67">
         <v>1</v>
       </c>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="73">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="120"/>
-      <c r="F131" s="91" t="s">
+      <c r="E131" s="74"/>
+      <c r="F131" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
-      <c r="J131" s="91"/>
-      <c r="K131" s="91"/>
-      <c r="L131" s="91"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="114"/>
-      <c r="B132" s="117"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="73">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="120"/>
-      <c r="F132" s="91" t="s">
+      <c r="E132" s="74"/>
+      <c r="F132" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
-      <c r="O132" s="91"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="115"/>
-      <c r="B133" s="118"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="72"/>
       <c r="C133" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="73">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="120"/>
-      <c r="F133" s="91" t="s">
+      <c r="E133" s="74"/>
+      <c r="F133" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="91"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="91"/>
-      <c r="J133" s="91"/>
-      <c r="K133" s="91"/>
-      <c r="L133" s="91"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
-      <c r="O133" s="91"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -23868,15 +23868,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="107"/>
-      <c r="D134" s="108">
+      <c r="C134" s="59"/>
+      <c r="D134" s="60">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="109"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -23888,12 +23888,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="110" t="s">
+      <c r="Q134" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="110"/>
-      <c r="S134" s="110"/>
-      <c r="T134" s="110"/>
+      <c r="R134" s="62"/>
+      <c r="S134" s="62"/>
+      <c r="T134" s="62"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -23912,12 +23912,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="110" t="s">
+      <c r="Q135" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="110"/>
-      <c r="S135" s="110"/>
-      <c r="T135" s="110"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -24075,58 +24075,132 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
     <mergeCell ref="A95:A100"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
@@ -24145,132 +24219,58 @@
     <mergeCell ref="G89:G91"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">

--- a/core/core-api/src/main/resources/excel-templates/BTP.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/BTP.xlsx
@@ -1228,23 +1228,23 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
+          <t>(BTP_4_5_OFFPEAK)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
           <t>(BTP_4_6_OFFPEAK)</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q49" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>(BTP_4_6_OFFPEAK)</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R49" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1592,7 +1592,7 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>(BTP_6_0_STANDARD)</t>
+          <t>(BTP_5_0_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -6919,7 +6919,7 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>(BTP_6_0_STANDARD)</t>
+          <t>(BTP_5_0_STANDARD)</t>
         </r>
       </text>
     </comment>
@@ -11669,6 +11669,150 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11688,12 +11832,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11718,144 +11856,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12222,7 +12222,7 @@
   <dimension ref="A1:AA142"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="E24" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="U76" sqref="U76:U78"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13357,52 +13357,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -14015,89 +14015,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92" t="s">
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="99" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="100" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="100" t="s">
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="100" t="s">
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="100" t="s">
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="101"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="99"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -14134,15 +14134,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="99"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="95"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -14187,25 +14187,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="74">
         <v>1</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G39" s="83">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -14236,21 +14236,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="119">
+      <c r="U39" s="58">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="112"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -14279,18 +14279,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="120"/>
+      <c r="U40" s="59"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -14319,28 +14319,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="120"/>
+      <c r="U41" s="59"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+      <c r="A42" s="74">
         <v>2</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="80" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="83">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -14371,21 +14371,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="119">
+      <c r="U42" s="58">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -14414,18 +14414,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="120"/>
+      <c r="U43" s="59"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="113"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -14454,28 +14454,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="120"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+      <c r="A45" s="74">
         <v>3</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="80" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="83">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -14506,21 +14506,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="119">
+      <c r="U45" s="58">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="112"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -14549,18 +14549,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="120"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="113"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -14589,28 +14589,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="120"/>
+      <c r="U47" s="59"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108">
+      <c r="A48" s="74">
         <v>4</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="80" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="83">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -14641,21 +14641,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="119">
+      <c r="U48" s="58">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -14684,18 +14684,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="120"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="113"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -14724,28 +14724,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="120"/>
+      <c r="U50" s="59"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+      <c r="A51" s="74">
         <v>5</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="80" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="111">
+      <c r="G51" s="83">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -14776,21 +14776,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="119">
+      <c r="U51" s="58">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="112"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -14819,18 +14819,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="120"/>
+      <c r="U52" s="59"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="113"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -14859,22 +14859,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="120"/>
+      <c r="U53" s="59"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="80" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="111">
+      <c r="G54" s="83">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -14905,21 +14905,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="119">
+      <c r="U54" s="58">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -14948,18 +14948,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="120"/>
+      <c r="U55" s="59"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="113"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -14988,28 +14988,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="120"/>
+      <c r="U56" s="59"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="74">
         <v>6</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="83">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -15040,21 +15040,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="119">
+      <c r="U57" s="58">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -15083,18 +15083,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="120"/>
+      <c r="U58" s="59"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="113"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -15123,24 +15123,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="120"/>
+      <c r="U59" s="59"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="85" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="77" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="111">
+      <c r="G60" s="83">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -15171,21 +15171,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U60" s="119">
+      <c r="U60" s="58">
         <f t="shared" ref="U60" si="10">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="86"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -15214,18 +15214,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U61" s="120"/>
+      <c r="U61" s="59"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="87"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="113"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -15254,28 +15254,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="120"/>
+      <c r="U62" s="59"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108">
+      <c r="A63" s="74">
         <v>7</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="80" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="83">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -15306,21 +15306,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="119">
+      <c r="U63" s="58">
         <f t="shared" ref="U63" si="11">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="112"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -15349,18 +15349,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="120"/>
+      <c r="U64" s="59"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="113"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -15389,7 +15389,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="120"/>
+      <c r="U65" s="59"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -15408,11 +15408,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="107" t="s">
+      <c r="Q66" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -15435,11 +15435,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="107" t="s">
+      <c r="Q67" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -15462,11 +15462,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="107" t="s">
+      <c r="Q68" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -15489,11 +15489,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="107" t="s">
+      <c r="Q69" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -15556,89 +15556,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92" t="s">
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92" t="s">
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92" t="s">
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="99" t="s">
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="100" t="s">
+      <c r="A73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="101"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="100" t="s">
+      <c r="I73" s="63"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="101"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="100" t="s">
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O73" s="101"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="100" t="s">
+      <c r="O73" s="63"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R73" s="101"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="99"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="61"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -15675,15 +15675,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="99"/>
+      <c r="T74" s="61"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="95"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="69"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -15728,25 +15728,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84">
+      <c r="A76" s="90">
         <v>1</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="75" t="s">
+      <c r="E76" s="91" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="91">
+      <c r="G76" s="92">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -15777,21 +15777,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="119">
+      <c r="U76" s="58">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="91"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -15820,18 +15820,18 @@
         <f t="shared" ref="T77:T78" si="16">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="120"/>
+      <c r="U77" s="59"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="91"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -15860,7 +15860,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U78" s="120"/>
+      <c r="U78" s="59"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -15880,10 +15880,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="105" t="s">
+      <c r="R79" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="106"/>
+      <c r="S79" s="94"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -15946,89 +15946,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="96" t="s">
+      <c r="E82" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="81" t="s">
+      <c r="G82" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="92" t="s">
+      <c r="H82" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="92" t="s">
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92" t="s">
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92" t="s">
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="99" t="s">
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="81"/>
-      <c r="H83" s="100" t="s">
+      <c r="A83" s="68"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="101"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="100" t="s">
+      <c r="I83" s="63"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="100" t="s">
+      <c r="L83" s="63"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O83" s="101"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="100" t="s">
+      <c r="O83" s="63"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R83" s="101"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="99"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="64"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -16065,15 +16065,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="99"/>
+      <c r="T84" s="61"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="95"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -16118,25 +16118,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+      <c r="A86" s="90">
         <v>1</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="75" t="s">
+      <c r="E86" s="91" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="92">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -16167,21 +16167,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="119">
+      <c r="U86" s="58">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="91"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -16210,18 +16210,18 @@
         <f t="shared" ref="T87:T88" si="21">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="120"/>
+      <c r="U87" s="59"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="91"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -16250,20 +16250,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U88" s="120"/>
+      <c r="U88" s="59"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="104" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="91">
+      <c r="G89" s="92">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -16294,21 +16294,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="119">
+      <c r="U89" s="58">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="104"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="91"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -16337,18 +16337,18 @@
         <f t="shared" ref="T90:T91" si="22">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="120"/>
+      <c r="U90" s="59"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="95"/>
       <c r="F91" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -16377,20 +16377,20 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U91" s="120"/>
+      <c r="U91" s="59"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="104" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="92">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -16421,21 +16421,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="119">
+      <c r="U92" s="58">
         <f t="shared" ref="U92" si="23">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="104"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -16464,18 +16464,18 @@
         <f t="shared" ref="T93:T94" si="24">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="120"/>
+      <c r="U93" s="59"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="104"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="91"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -16504,28 +16504,28 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U94" s="120"/>
+      <c r="U94" s="59"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="91" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="91">
+      <c r="G95" s="92">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -16556,21 +16556,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="119">
+      <c r="U95" s="58">
         <f t="shared" ref="U95" si="25">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="91"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -16599,18 +16599,18 @@
         <f t="shared" ref="T96:T97" si="26">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="120"/>
+      <c r="U96" s="59"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="91"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -16639,20 +16639,20 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U97" s="120"/>
+      <c r="U97" s="59"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="104" t="s">
+      <c r="A98" s="90"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="91">
+      <c r="G98" s="92">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -16683,21 +16683,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="119">
+      <c r="U98" s="58">
         <f t="shared" ref="U98" si="27">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="104"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="91"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -16726,18 +16726,18 @@
         <f t="shared" ref="T99:T100" si="28">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="120"/>
+      <c r="U99" s="59"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="104"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="91"/>
+      <c r="G100" s="92"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -16766,7 +16766,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U100" s="120"/>
+      <c r="U100" s="59"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -16784,12 +16784,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="103" t="s">
+      <c r="P101" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="103"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -16811,12 +16811,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="103" t="s">
+      <c r="P102" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="103"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -16838,12 +16838,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="103" t="s">
+      <c r="P103" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="103"/>
-      <c r="R103" s="103"/>
-      <c r="S103" s="103"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="96"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -16865,12 +16865,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="103" t="s">
+      <c r="P104" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="96"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -16898,89 +16898,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="93" t="s">
+      <c r="C106" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="93" t="s">
+      <c r="D106" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="81" t="s">
+      <c r="G106" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="92" t="s">
+      <c r="H106" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92" t="s">
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92" t="s">
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="92"/>
-      <c r="P106" s="92"/>
-      <c r="Q106" s="92" t="s">
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="99" t="s">
+      <c r="R106" s="60"/>
+      <c r="S106" s="60"/>
+      <c r="T106" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="81"/>
-      <c r="H107" s="100" t="s">
+      <c r="A107" s="68"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="73"/>
+      <c r="H107" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="I107" s="101"/>
-      <c r="J107" s="102"/>
-      <c r="K107" s="100" t="s">
+      <c r="I107" s="63"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="L107" s="101"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="100" t="s">
+      <c r="L107" s="63"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="O107" s="101"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="100" t="s">
+      <c r="O107" s="63"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="R107" s="101"/>
-      <c r="S107" s="102"/>
-      <c r="T107" s="99"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="61"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="94"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -17017,15 +17017,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="99"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="95"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -17070,25 +17070,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
+      <c r="A110" s="90">
         <v>1</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="88" t="s">
+      <c r="E110" s="80" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="92">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -17119,21 +17119,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="119">
+      <c r="U110" s="58">
         <f t="shared" ref="U110" si="29">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="91"/>
+      <c r="G111" s="92"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -17162,18 +17162,18 @@
         <f t="shared" ref="T111:T112" si="34">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="120"/>
+      <c r="U111" s="59"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="90"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="91"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -17202,7 +17202,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U112" s="120"/>
+      <c r="U112" s="59"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -17248,17 +17248,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="76" t="s">
+      <c r="P114" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="81" t="s">
+      <c r="Q114" s="98"/>
+      <c r="R114" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="81" t="s">
+      <c r="S114" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="81" t="s">
+      <c r="T114" s="73" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -17285,11 +17285,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
+      <c r="P115" s="99"/>
+      <c r="Q115" s="100"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -17314,8 +17314,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="80"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="102"/>
       <c r="R116" s="53"/>
       <c r="S116" s="53" t="s">
         <v>131</v>
@@ -17347,10 +17347,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="75" t="s">
+      <c r="P117" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="75"/>
+      <c r="Q117" s="91"/>
       <c r="R117" s="55" t="s">
         <v>7</v>
       </c>
@@ -17378,8 +17378,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="75"/>
+      <c r="P118" s="91"/>
+      <c r="Q118" s="91"/>
       <c r="R118" s="55" t="s">
         <v>8</v>
       </c>
@@ -17407,8 +17407,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
+      <c r="P119" s="91"/>
+      <c r="Q119" s="91"/>
       <c r="R119" s="55" t="s">
         <v>9</v>
       </c>
@@ -17436,12 +17436,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="83" t="s">
+      <c r="P120" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
-      <c r="S120" s="83"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -17485,17 +17485,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="76" t="s">
+      <c r="P122" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="81" t="s">
+      <c r="Q122" s="98"/>
+      <c r="R122" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="81" t="s">
+      <c r="S122" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="66" t="s">
+      <c r="T122" s="103" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -17522,11 +17522,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="78"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="82"/>
+      <c r="P123" s="99"/>
+      <c r="Q123" s="100"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="104"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -17551,8 +17551,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="80"/>
+      <c r="P124" s="101"/>
+      <c r="Q124" s="102"/>
       <c r="R124" s="53"/>
       <c r="S124" s="53" t="s">
         <v>131</v>
@@ -17584,10 +17584,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="75" t="s">
+      <c r="P125" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="75"/>
+      <c r="Q125" s="91"/>
       <c r="R125" s="55" t="s">
         <v>7</v>
       </c>
@@ -17615,8 +17615,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
+      <c r="P126" s="91"/>
+      <c r="Q126" s="91"/>
       <c r="R126" s="55" t="s">
         <v>8</v>
       </c>
@@ -17644,8 +17644,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="75"/>
-      <c r="Q127" s="75"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="91"/>
       <c r="R127" s="55" t="s">
         <v>9</v>
       </c>
@@ -17673,12 +17673,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="83" t="s">
+      <c r="P128" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="83"/>
-      <c r="S128" s="83"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -17715,22 +17715,22 @@
       <c r="C130" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="63" t="s">
+      <c r="D130" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65" t="s">
+      <c r="E130" s="112"/>
+      <c r="F130" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="66"/>
-      <c r="O130" s="66"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="103"/>
+      <c r="J130" s="103"/>
+      <c r="K130" s="103"/>
+      <c r="L130" s="103"/>
+      <c r="M130" s="103"/>
+      <c r="N130" s="103"/>
+      <c r="O130" s="103"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -17738,84 +17738,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="67">
+      <c r="A131" s="113">
         <v>1</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="116" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="73">
+      <c r="D131" s="119">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="75" t="s">
+      <c r="E131" s="120"/>
+      <c r="F131" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="91"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="91"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="71"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="119">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="74"/>
-      <c r="F132" s="75" t="s">
+      <c r="E132" s="120"/>
+      <c r="F132" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="91"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="73">
+      <c r="D133" s="119">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="75" t="s">
+      <c r="E133" s="120"/>
+      <c r="F133" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="91"/>
+      <c r="N133" s="91"/>
+      <c r="O133" s="91"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -17823,15 +17823,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="58" t="s">
+      <c r="B134" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60">
+      <c r="C134" s="107"/>
+      <c r="D134" s="108">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="61"/>
+      <c r="E134" s="109"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -17843,12 +17843,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="62" t="s">
+      <c r="Q134" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="62"/>
-      <c r="S134" s="62"/>
-      <c r="T134" s="62"/>
+      <c r="R134" s="110"/>
+      <c r="S134" s="110"/>
+      <c r="T134" s="110"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -17867,12 +17867,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
+      <c r="R135" s="110"/>
+      <c r="S135" s="110"/>
+      <c r="T135" s="110"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -18030,22 +18030,168 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:S35"/>
@@ -18064,168 +18210,22 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
@@ -18266,8 +18266,8 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19402,52 +19402,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -20060,89 +20060,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="93" t="s">
+      <c r="D35" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="93" t="s">
+      <c r="F35" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="81" t="s">
+      <c r="G35" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="92" t="s">
+      <c r="H35" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92" t="s">
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92" t="s">
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="99" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="81"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="73"/>
       <c r="H36" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
-      <c r="K36" s="100" t="s">
+      <c r="K36" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="100" t="s">
+      <c r="L36" s="63"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="100" t="s">
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="101"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="99"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="81"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -20179,15 +20179,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="99"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="95"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -20232,25 +20232,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
+      <c r="A39" s="74">
         <v>1</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="80" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="111">
+      <c r="G39" s="83">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -20281,21 +20281,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="119">
+      <c r="U39" s="58">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="112"/>
+      <c r="G40" s="84"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -20324,18 +20324,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="120"/>
+      <c r="U40" s="59"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="110"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
       <c r="F41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="113"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -20364,28 +20364,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="120"/>
+      <c r="U41" s="59"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+      <c r="A42" s="74">
         <v>2</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="88" t="s">
+      <c r="E42" s="80" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="111">
+      <c r="G42" s="83">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -20416,21 +20416,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="119">
+      <c r="U42" s="58">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
+      <c r="A43" s="75"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="112"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -20459,18 +20459,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="120"/>
+      <c r="U43" s="59"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="110"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
       <c r="F44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="113"/>
+      <c r="G44" s="85"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -20499,28 +20499,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="120"/>
+      <c r="U44" s="59"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="108">
+      <c r="A45" s="74">
         <v>3</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="80" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="111">
+      <c r="G45" s="83">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -20551,21 +20551,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="119">
+      <c r="U45" s="58">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="112"/>
+      <c r="G46" s="84"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -20594,18 +20594,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="120"/>
+      <c r="U46" s="59"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
       <c r="F47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="113"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -20634,28 +20634,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="120"/>
+      <c r="U47" s="59"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="108">
+      <c r="A48" s="74">
         <v>4</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="88" t="s">
+      <c r="E48" s="80" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="111">
+      <c r="G48" s="83">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -20686,21 +20686,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="119">
+      <c r="U48" s="58">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+      <c r="A49" s="75"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
       <c r="F49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="112"/>
+      <c r="G49" s="84"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -20729,18 +20729,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="120"/>
+      <c r="U49" s="59"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="110"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="113"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -20769,28 +20769,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="120"/>
+      <c r="U50" s="59"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108">
+      <c r="A51" s="74">
         <v>5</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="88" t="s">
+      <c r="D51" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="88" t="s">
+      <c r="E51" s="80" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="111">
+      <c r="G51" s="83">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -20821,21 +20821,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="119">
+      <c r="U51" s="58">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
       <c r="F52" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="112"/>
+      <c r="G52" s="84"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -20864,18 +20864,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="120"/>
+      <c r="U52" s="59"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
       <c r="F53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="113"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -20904,22 +20904,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="120"/>
+      <c r="U53" s="59"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88" t="s">
+      <c r="A54" s="75"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="88" t="s">
+      <c r="E54" s="80" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="111">
+      <c r="G54" s="83">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -20950,21 +20950,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="119">
+      <c r="U54" s="58">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="F55" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="112"/>
+      <c r="G55" s="84"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -20993,18 +20993,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="120"/>
+      <c r="U55" s="59"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="110"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
       <c r="F56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="113"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -21033,28 +21033,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="120"/>
+      <c r="U56" s="59"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="108">
+      <c r="A57" s="74">
         <v>6</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="85" t="s">
+      <c r="C57" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="88" t="s">
+      <c r="E57" s="80" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="111">
+      <c r="G57" s="83">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -21085,21 +21085,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="119">
+      <c r="U57" s="58">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
       <c r="F58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="112"/>
+      <c r="G58" s="84"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -21128,18 +21128,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="120"/>
+      <c r="U58" s="59"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
       <c r="F59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="113"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -21168,24 +21168,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="120"/>
+      <c r="U59" s="59"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="85" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="77" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="111">
+      <c r="G60" s="83">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -21216,21 +21216,21 @@
         <f t="shared" ref="T60:T62" si="11">$G$39*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="119">
+      <c r="U60" s="58">
         <f t="shared" ref="U60" si="12">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="86"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="78"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="112"/>
+      <c r="G61" s="84"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -21259,18 +21259,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U61" s="120"/>
+      <c r="U61" s="59"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="110"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="87"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="113"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -21299,28 +21299,28 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U62" s="120"/>
+      <c r="U62" s="59"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="108">
+      <c r="A63" s="74">
         <v>7</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C63" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="88" t="s">
+      <c r="E63" s="80" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="111">
+      <c r="G63" s="83">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -21351,21 +21351,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="119">
+      <c r="U63" s="58">
         <f t="shared" ref="U63" si="13">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
       <c r="F64" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="112"/>
+      <c r="G64" s="84"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -21394,18 +21394,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="120"/>
+      <c r="U64" s="59"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
       <c r="F65" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="113"/>
+      <c r="G65" s="85"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -21434,7 +21434,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="120"/>
+      <c r="U65" s="59"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -21453,11 +21453,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="107" t="s">
+      <c r="Q66" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
+      <c r="R66" s="89"/>
+      <c r="S66" s="89"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -21480,11 +21480,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="107" t="s">
+      <c r="Q67" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="107"/>
-      <c r="S67" s="107"/>
+      <c r="R67" s="89"/>
+      <c r="S67" s="89"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -21507,11 +21507,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="107" t="s">
+      <c r="Q68" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="107"/>
-      <c r="S68" s="107"/>
+      <c r="R68" s="89"/>
+      <c r="S68" s="89"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -21534,11 +21534,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="107" t="s">
+      <c r="Q69" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="107"/>
-      <c r="S69" s="107"/>
+      <c r="R69" s="89"/>
+      <c r="S69" s="89"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -21601,89 +21601,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92" t="s">
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92" t="s">
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92" t="s">
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="99" t="s">
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="81"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="68"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="73"/>
       <c r="H73" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I73" s="122"/>
       <c r="J73" s="123"/>
-      <c r="K73" s="100" t="s">
+      <c r="K73" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="101"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="100" t="s">
+      <c r="L73" s="63"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="101"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="100" t="s">
+      <c r="O73" s="63"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R73" s="101"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="99"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="61"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="97"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="81"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -21720,15 +21720,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="99"/>
+      <c r="T74" s="61"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="95"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="69"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -21773,25 +21773,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="84">
+      <c r="A76" s="90">
         <v>1</v>
       </c>
-      <c r="B76" s="75" t="s">
+      <c r="B76" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="75" t="s">
+      <c r="D76" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="75" t="s">
+      <c r="E76" s="91" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="91">
+      <c r="G76" s="92">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -21822,21 +21822,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="119">
+      <c r="U76" s="58">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="84"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
+      <c r="A77" s="90"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="91"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -21865,18 +21865,18 @@
         <f t="shared" ref="T77:T78" si="18">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="120"/>
+      <c r="U77" s="59"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="84"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="75"/>
-      <c r="E78" s="75"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="91"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -21905,7 +21905,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U78" s="120"/>
+      <c r="U78" s="59"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -21925,10 +21925,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="105" t="s">
+      <c r="R79" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="106"/>
+      <c r="S79" s="94"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -21991,89 +21991,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="93" t="s">
+      <c r="A82" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="96" t="s">
+      <c r="E82" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="93" t="s">
+      <c r="F82" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="81" t="s">
+      <c r="G82" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="92" t="s">
+      <c r="H82" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="92" t="s">
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="92"/>
-      <c r="M82" s="92"/>
-      <c r="N82" s="92" t="s">
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="92"/>
-      <c r="P82" s="92"/>
-      <c r="Q82" s="92" t="s">
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="92"/>
-      <c r="S82" s="92"/>
-      <c r="T82" s="99" t="s">
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="97"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="81"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="73"/>
       <c r="H83" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I83" s="122"/>
       <c r="J83" s="123"/>
-      <c r="K83" s="100" t="s">
+      <c r="K83" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="100" t="s">
+      <c r="L83" s="63"/>
+      <c r="M83" s="64"/>
+      <c r="N83" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O83" s="101"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="100" t="s">
+      <c r="O83" s="63"/>
+      <c r="P83" s="64"/>
+      <c r="Q83" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R83" s="101"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="99"/>
+      <c r="R83" s="63"/>
+      <c r="S83" s="64"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="94"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="94"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="73"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -22110,15 +22110,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="99"/>
+      <c r="T84" s="61"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="98"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="98"/>
-      <c r="F85" s="95"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="69"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -22163,25 +22163,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84">
+      <c r="A86" s="90">
         <v>1</v>
       </c>
-      <c r="B86" s="75" t="s">
+      <c r="B86" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="75" t="s">
+      <c r="C86" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="75" t="s">
+      <c r="E86" s="91" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="91">
+      <c r="G86" s="92">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -22212,21 +22212,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="119">
+      <c r="U86" s="58">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="75"/>
+      <c r="A87" s="90"/>
+      <c r="B87" s="91"/>
+      <c r="C87" s="91"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="91"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -22255,18 +22255,18 @@
         <f t="shared" ref="T87:T88" si="23">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="120"/>
+      <c r="U87" s="59"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="75"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="91"/>
       <c r="F88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="91"/>
+      <c r="G88" s="92"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -22295,20 +22295,20 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U88" s="120"/>
+      <c r="U88" s="59"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="104" t="s">
+      <c r="A89" s="90"/>
+      <c r="B89" s="91"/>
+      <c r="C89" s="91"/>
+      <c r="D89" s="90"/>
+      <c r="E89" s="95" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="91">
+      <c r="G89" s="92">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -22339,21 +22339,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="119">
+      <c r="U89" s="58">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="84"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="104"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="90"/>
+      <c r="E90" s="95"/>
       <c r="F90" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="91"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -22382,18 +22382,18 @@
         <f t="shared" ref="T90:T91" si="24">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="120"/>
+      <c r="U90" s="59"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="104"/>
+      <c r="A91" s="90"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="90"/>
+      <c r="E91" s="95"/>
       <c r="F91" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="91"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -22422,20 +22422,20 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U91" s="120"/>
+      <c r="U91" s="59"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="84"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="104" t="s">
+      <c r="A92" s="90"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="91">
+      <c r="G92" s="92">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -22466,21 +22466,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="119">
+      <c r="U92" s="58">
         <f t="shared" ref="U92" si="25">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="104"/>
+      <c r="A93" s="90"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="95"/>
       <c r="F93" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="91"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -22509,18 +22509,18 @@
         <f t="shared" ref="T93:T94" si="26">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="120"/>
+      <c r="U93" s="59"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="84"/>
-      <c r="B94" s="75"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="104"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="95"/>
       <c r="F94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="91"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -22549,28 +22549,28 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U94" s="120"/>
+      <c r="U94" s="59"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="84">
+      <c r="A95" s="90">
         <v>2</v>
       </c>
-      <c r="B95" s="75" t="s">
+      <c r="B95" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="91" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="91">
+      <c r="G95" s="92">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -22601,21 +22601,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="119">
+      <c r="U95" s="58">
         <f t="shared" ref="U95" si="27">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="84"/>
-      <c r="B96" s="75"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="91"/>
       <c r="F96" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="91"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -22644,18 +22644,18 @@
         <f t="shared" ref="T96:T97" si="28">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="120"/>
+      <c r="U96" s="59"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="75"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="91"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="91"/>
       <c r="F97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="91"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -22684,20 +22684,20 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U97" s="120"/>
+      <c r="U97" s="59"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="84"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="75"/>
-      <c r="E98" s="104" t="s">
+      <c r="A98" s="90"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="95" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="91">
+      <c r="G98" s="92">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -22728,21 +22728,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="119">
+      <c r="U98" s="58">
         <f t="shared" ref="U98" si="29">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="84"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="104"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="95"/>
       <c r="F99" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="91"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -22771,18 +22771,18 @@
         <f t="shared" ref="T99:T100" si="30">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="120"/>
+      <c r="U99" s="59"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="84"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="75"/>
-      <c r="D100" s="75"/>
-      <c r="E100" s="104"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="91"/>
+      <c r="G100" s="92"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -22811,7 +22811,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U100" s="120"/>
+      <c r="U100" s="59"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -22829,12 +22829,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="103" t="s">
+      <c r="P101" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="103"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -22856,12 +22856,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="103" t="s">
+      <c r="P102" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="103"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -22883,12 +22883,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="103" t="s">
+      <c r="P103" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="103"/>
-      <c r="R103" s="103"/>
-      <c r="S103" s="103"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="96"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -22910,12 +22910,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="103" t="s">
+      <c r="P104" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="96"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -22943,89 +22943,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="93" t="s">
+      <c r="A106" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="96" t="s">
+      <c r="B106" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="93" t="s">
+      <c r="C106" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="93" t="s">
+      <c r="D106" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="96" t="s">
+      <c r="E106" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="93" t="s">
+      <c r="F106" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="81" t="s">
+      <c r="G106" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="92" t="s">
+      <c r="H106" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
-      <c r="K106" s="92" t="s">
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="92"/>
-      <c r="M106" s="92"/>
-      <c r="N106" s="92" t="s">
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="92"/>
-      <c r="P106" s="92"/>
-      <c r="Q106" s="92" t="s">
+      <c r="O106" s="60"/>
+      <c r="P106" s="60"/>
+      <c r="Q106" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="92"/>
-      <c r="S106" s="92"/>
-      <c r="T106" s="99" t="s">
+      <c r="R106" s="60"/>
+      <c r="S106" s="60"/>
+      <c r="T106" s="61" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="94"/>
-      <c r="B107" s="97"/>
-      <c r="C107" s="94"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="94"/>
-      <c r="G107" s="81"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="71"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="73"/>
       <c r="H107" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I107" s="122"/>
       <c r="J107" s="123"/>
-      <c r="K107" s="100" t="s">
+      <c r="K107" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="101"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="100" t="s">
+      <c r="L107" s="63"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="101"/>
-      <c r="P107" s="102"/>
-      <c r="Q107" s="100" t="s">
+      <c r="O107" s="63"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="101"/>
-      <c r="S107" s="102"/>
-      <c r="T107" s="99"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="61"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="97"/>
-      <c r="C108" s="94"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="94"/>
-      <c r="G108" s="81"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="73"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -23062,15 +23062,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="99"/>
+      <c r="T108" s="61"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
-      <c r="B109" s="98"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="95"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="95"/>
+      <c r="A109" s="69"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="72"/>
+      <c r="F109" s="69"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -23115,25 +23115,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="84">
+      <c r="A110" s="90">
         <v>1</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="85" t="s">
+      <c r="C110" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="88" t="s">
+      <c r="E110" s="80" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="91">
+      <c r="G110" s="92">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -23164,21 +23164,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="119">
+      <c r="U110" s="58">
         <f t="shared" ref="U110" si="31">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="89"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="78"/>
+      <c r="C111" s="78"/>
+      <c r="D111" s="78"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="91"/>
+      <c r="G111" s="92"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -23207,18 +23207,18 @@
         <f t="shared" ref="T111:T112" si="36">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="120"/>
+      <c r="U111" s="59"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="90"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="91"/>
+      <c r="G112" s="92"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -23247,7 +23247,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U112" s="120"/>
+      <c r="U112" s="59"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -23293,17 +23293,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="76" t="s">
+      <c r="P114" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="77"/>
-      <c r="R114" s="81" t="s">
+      <c r="Q114" s="98"/>
+      <c r="R114" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="81" t="s">
+      <c r="S114" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="81" t="s">
+      <c r="T114" s="73" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -23330,11 +23330,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="78"/>
-      <c r="R115" s="81"/>
-      <c r="S115" s="81"/>
-      <c r="T115" s="81"/>
+      <c r="P115" s="99"/>
+      <c r="Q115" s="100"/>
+      <c r="R115" s="73"/>
+      <c r="S115" s="73"/>
+      <c r="T115" s="73"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -23359,8 +23359,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="79"/>
-      <c r="Q116" s="80"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="102"/>
       <c r="R116" s="41"/>
       <c r="S116" s="41" t="s">
         <v>131</v>
@@ -23392,10 +23392,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="75" t="s">
+      <c r="P117" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="75"/>
+      <c r="Q117" s="91"/>
       <c r="R117" s="43" t="s">
         <v>7</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="75"/>
+      <c r="P118" s="91"/>
+      <c r="Q118" s="91"/>
       <c r="R118" s="43" t="s">
         <v>8</v>
       </c>
@@ -23452,8 +23452,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
+      <c r="P119" s="91"/>
+      <c r="Q119" s="91"/>
       <c r="R119" s="43" t="s">
         <v>9</v>
       </c>
@@ -23481,12 +23481,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="83" t="s">
+      <c r="P120" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
-      <c r="S120" s="83"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -23530,17 +23530,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="76" t="s">
+      <c r="P122" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="77"/>
-      <c r="R122" s="81" t="s">
+      <c r="Q122" s="98"/>
+      <c r="R122" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="81" t="s">
+      <c r="S122" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="66" t="s">
+      <c r="T122" s="103" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -23567,11 +23567,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="78"/>
-      <c r="R123" s="81"/>
-      <c r="S123" s="81"/>
-      <c r="T123" s="82"/>
+      <c r="P123" s="99"/>
+      <c r="Q123" s="100"/>
+      <c r="R123" s="73"/>
+      <c r="S123" s="73"/>
+      <c r="T123" s="104"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -23596,8 +23596,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="79"/>
-      <c r="Q124" s="80"/>
+      <c r="P124" s="101"/>
+      <c r="Q124" s="102"/>
       <c r="R124" s="41"/>
       <c r="S124" s="41" t="s">
         <v>131</v>
@@ -23629,10 +23629,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="75" t="s">
+      <c r="P125" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="75"/>
+      <c r="Q125" s="91"/>
       <c r="R125" s="43" t="s">
         <v>7</v>
       </c>
@@ -23660,8 +23660,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="75"/>
-      <c r="Q126" s="75"/>
+      <c r="P126" s="91"/>
+      <c r="Q126" s="91"/>
       <c r="R126" s="43" t="s">
         <v>8</v>
       </c>
@@ -23689,8 +23689,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="75"/>
-      <c r="Q127" s="75"/>
+      <c r="P127" s="91"/>
+      <c r="Q127" s="91"/>
       <c r="R127" s="43" t="s">
         <v>9</v>
       </c>
@@ -23718,12 +23718,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="83" t="s">
+      <c r="P128" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="83"/>
-      <c r="S128" s="83"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -23760,22 +23760,22 @@
       <c r="C130" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="63" t="s">
+      <c r="D130" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65" t="s">
+      <c r="E130" s="112"/>
+      <c r="F130" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="66"/>
-      <c r="O130" s="66"/>
+      <c r="G130" s="103"/>
+      <c r="H130" s="103"/>
+      <c r="I130" s="103"/>
+      <c r="J130" s="103"/>
+      <c r="K130" s="103"/>
+      <c r="L130" s="103"/>
+      <c r="M130" s="103"/>
+      <c r="N130" s="103"/>
+      <c r="O130" s="103"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -23783,84 +23783,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="67">
+      <c r="A131" s="113">
         <v>1</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="116" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="73">
+      <c r="D131" s="119">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="74"/>
-      <c r="F131" s="75" t="s">
+      <c r="E131" s="120"/>
+      <c r="F131" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="75"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="75"/>
-      <c r="J131" s="75"/>
-      <c r="K131" s="75"/>
-      <c r="L131" s="75"/>
-      <c r="M131" s="75"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="75"/>
+      <c r="G131" s="91"/>
+      <c r="H131" s="91"/>
+      <c r="I131" s="91"/>
+      <c r="J131" s="91"/>
+      <c r="K131" s="91"/>
+      <c r="L131" s="91"/>
+      <c r="M131" s="91"/>
+      <c r="N131" s="91"/>
+      <c r="O131" s="91"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="71"/>
+      <c r="A132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="119">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="74"/>
-      <c r="F132" s="75" t="s">
+      <c r="E132" s="120"/>
+      <c r="F132" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="75"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="75"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="75"/>
-      <c r="M132" s="75"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="75"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+      <c r="L132" s="91"/>
+      <c r="M132" s="91"/>
+      <c r="N132" s="91"/>
+      <c r="O132" s="91"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="69"/>
-      <c r="B133" s="72"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="118"/>
       <c r="C133" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="73">
+      <c r="D133" s="119">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="74"/>
-      <c r="F133" s="75" t="s">
+      <c r="E133" s="120"/>
+      <c r="F133" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="75"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="75"/>
+      <c r="G133" s="91"/>
+      <c r="H133" s="91"/>
+      <c r="I133" s="91"/>
+      <c r="J133" s="91"/>
+      <c r="K133" s="91"/>
+      <c r="L133" s="91"/>
+      <c r="M133" s="91"/>
+      <c r="N133" s="91"/>
+      <c r="O133" s="91"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -23868,15 +23868,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="58" t="s">
+      <c r="B134" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60">
+      <c r="C134" s="107"/>
+      <c r="D134" s="108">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="61"/>
+      <c r="E134" s="109"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -23888,12 +23888,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="62" t="s">
+      <c r="Q134" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="62"/>
-      <c r="S134" s="62"/>
-      <c r="T134" s="62"/>
+      <c r="R134" s="110"/>
+      <c r="S134" s="110"/>
+      <c r="T134" s="110"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -23912,12 +23912,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="62"/>
-      <c r="S135" s="62"/>
-      <c r="T135" s="62"/>
+      <c r="R135" s="110"/>
+      <c r="S135" s="110"/>
+      <c r="T135" s="110"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -24075,22 +24075,168 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C95:C100"/>
+    <mergeCell ref="D95:D100"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="B86:B94"/>
+    <mergeCell ref="C86:C94"/>
+    <mergeCell ref="D86:D94"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="N35:P35"/>
     <mergeCell ref="Q35:S35"/>
@@ -24109,168 +24255,22 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C95:C100"/>
-    <mergeCell ref="D95:D100"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="B86:B94"/>
-    <mergeCell ref="C86:C94"/>
-    <mergeCell ref="D86:D94"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">

--- a/core/core-api/src/main/resources/excel-templates/BTP.xlsx
+++ b/core/core-api/src/main/resources/excel-templates/BTP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075" tabRatio="846"/>
   </bookViews>
   <sheets>
     <sheet name="BM ca ngày" sheetId="30" r:id="rId1"/>
@@ -5301,6 +5301,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="S117" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>(FACTOR_BTP_CATEGORY_4.1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T120" authorId="0" shapeId="0">
       <text>
         <r>
@@ -5311,6 +5324,19 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t>(SUM_BTP_CATEGORY_4.1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S125" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>(FACTOR_BTP_CATEGORY_4.2)</t>
         </r>
       </text>
     </comment>
@@ -10628,6 +10654,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="S117" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>(FACTOR_BTP_CATEGORY_4.1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T120" authorId="0" shapeId="0">
       <text>
         <r>
@@ -10638,6 +10677,19 @@
             <rFont val="Tahoma"/>
           </rPr>
           <t>(SUM_BTP_CATEGORY_4.1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S125" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>(FACTOR_BTP_CATEGORY_4.2)</t>
         </r>
       </text>
     </comment>
@@ -11669,150 +11721,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11832,6 +11740,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11856,6 +11770,144 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12221,8 +12273,8 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E24" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="S125" sqref="S125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13357,52 +13409,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -14015,89 +14067,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60" t="s">
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60" t="s">
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60" t="s">
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61" t="s">
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="62" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="62" t="s">
+      <c r="I36" s="101"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="62" t="s">
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="62" t="s">
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="61"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="99"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -14134,15 +14186,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="61"/>
+      <c r="T37" s="99"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="69"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -14187,25 +14239,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="108">
         <v>1</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="88" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="111">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -14236,21 +14288,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="58">
+      <c r="U39" s="119">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="84"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -14279,18 +14331,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="59"/>
+      <c r="U40" s="120"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -14319,28 +14371,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="59"/>
+      <c r="U41" s="120"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="108">
         <v>2</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="111">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -14371,21 +14423,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="58">
+      <c r="U42" s="119">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -14414,18 +14466,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="59"/>
+      <c r="U43" s="120"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -14454,28 +14506,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="59"/>
+      <c r="U44" s="120"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+      <c r="A45" s="108">
         <v>3</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="88" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="111">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -14506,21 +14558,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="58">
+      <c r="U45" s="119">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -14549,18 +14601,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="59"/>
+      <c r="U46" s="120"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="85"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -14589,28 +14641,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="59"/>
+      <c r="U47" s="120"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74">
+      <c r="A48" s="108">
         <v>4</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="88" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="111">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -14641,21 +14693,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="119">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="84"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -14684,18 +14736,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="59"/>
+      <c r="U49" s="120"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="85"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -14724,28 +14776,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="59"/>
+      <c r="U50" s="120"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+      <c r="A51" s="108">
         <v>5</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="88" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="111">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -14776,21 +14828,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="58">
+      <c r="U51" s="119">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="112"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -14819,18 +14871,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="59"/>
+      <c r="U52" s="120"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -14859,22 +14911,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="59"/>
+      <c r="U53" s="120"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="80" t="s">
+      <c r="A54" s="109"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="88" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="111">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -14905,21 +14957,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="58">
+      <c r="U54" s="119">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -14948,18 +15000,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="59"/>
+      <c r="U55" s="120"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="85"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -14988,28 +15040,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="59"/>
+      <c r="U56" s="120"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+      <c r="A57" s="108">
         <v>6</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="111">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -15040,21 +15092,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="119">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="112"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -15083,18 +15135,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="59"/>
+      <c r="U58" s="120"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="85"/>
+      <c r="G59" s="113"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -15123,24 +15175,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="59"/>
+      <c r="U59" s="120"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="77" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="77" t="s">
+      <c r="E60" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="111">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -15171,21 +15223,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U60" s="58">
+      <c r="U60" s="119">
         <f t="shared" ref="U60" si="10">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="78"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="84"/>
+      <c r="G61" s="112"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -15214,18 +15266,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U61" s="59"/>
+      <c r="U61" s="120"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="79"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="85"/>
+      <c r="G62" s="113"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -15254,28 +15306,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U62" s="59"/>
+      <c r="U62" s="120"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+      <c r="A63" s="108">
         <v>7</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="88" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="83">
+      <c r="G63" s="111">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -15306,21 +15358,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="58">
+      <c r="U63" s="119">
         <f t="shared" ref="U63" si="11">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="112"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -15349,18 +15401,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="59"/>
+      <c r="U64" s="120"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="85"/>
+      <c r="G65" s="113"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -15389,7 +15441,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="59"/>
+      <c r="U65" s="120"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -15408,11 +15460,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="89" t="s">
+      <c r="Q66" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -15435,11 +15487,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="89" t="s">
+      <c r="Q67" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -15462,11 +15514,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="89" t="s">
+      <c r="Q68" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -15489,11 +15541,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="89" t="s">
+      <c r="Q69" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -15556,89 +15608,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="60" t="s">
+      <c r="H72" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60" t="s">
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60" t="s">
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60" t="s">
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="61" t="s">
+      <c r="R72" s="92"/>
+      <c r="S72" s="92"/>
+      <c r="T72" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="62" t="s">
+      <c r="A73" s="94"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I73" s="63"/>
-      <c r="J73" s="64"/>
-      <c r="K73" s="62" t="s">
+      <c r="I73" s="101"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="62" t="s">
+      <c r="L73" s="101"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O73" s="63"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="62" t="s">
+      <c r="O73" s="101"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R73" s="63"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="61"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="99"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -15675,15 +15727,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="61"/>
+      <c r="T74" s="99"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="69"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -15728,25 +15780,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="84">
         <v>1</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="75" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="92">
+      <c r="G76" s="91">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -15777,21 +15829,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="58">
+      <c r="U76" s="119">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="92"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -15820,18 +15872,18 @@
         <f t="shared" ref="T77:T78" si="16">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="59"/>
+      <c r="U77" s="120"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
       <c r="F78" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="92"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -15860,7 +15912,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U78" s="59"/>
+      <c r="U78" s="120"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -15880,10 +15932,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="93" t="s">
+      <c r="R79" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="94"/>
+      <c r="S79" s="106"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -15946,89 +15998,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="73" t="s">
+      <c r="G82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60" t="s">
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60" t="s">
+      <c r="L82" s="92"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60" t="s">
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="61" t="s">
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="62" t="s">
+      <c r="A83" s="94"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I83" s="63"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="62" t="s">
+      <c r="I83" s="101"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="62" t="s">
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O83" s="63"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="62" t="s">
+      <c r="O83" s="101"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R83" s="63"/>
-      <c r="S83" s="64"/>
-      <c r="T83" s="61"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="99"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -16065,15 +16117,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="61"/>
+      <c r="T84" s="99"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -16118,25 +16170,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90">
+      <c r="A86" s="84">
         <v>1</v>
       </c>
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="75" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="92">
+      <c r="G86" s="91">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -16167,21 +16219,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="58">
+      <c r="U86" s="119">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="75"/>
       <c r="F87" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -16210,18 +16262,18 @@
         <f t="shared" ref="T87:T88" si="21">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="59"/>
+      <c r="U87" s="120"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="91"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="75"/>
       <c r="F88" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="92"/>
+      <c r="G88" s="91"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -16250,20 +16302,20 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="U88" s="59"/>
+      <c r="U88" s="120"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="95" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="104" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -16294,21 +16346,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="58">
+      <c r="U89" s="119">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="95"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="92"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -16337,18 +16389,18 @@
         <f t="shared" ref="T90:T91" si="22">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="59"/>
+      <c r="U90" s="120"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="95"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="92"/>
+      <c r="G91" s="91"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -16377,20 +16429,20 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U91" s="59"/>
+      <c r="U91" s="120"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="95" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="104" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="92">
+      <c r="G92" s="91">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -16421,21 +16473,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="58">
+      <c r="U92" s="119">
         <f t="shared" ref="U92" si="23">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="95"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="92"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -16464,18 +16516,18 @@
         <f t="shared" ref="T93:T94" si="24">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="59"/>
+      <c r="U93" s="120"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="95"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="92"/>
+      <c r="G94" s="91"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -16504,28 +16556,28 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U94" s="59"/>
+      <c r="U94" s="120"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="84">
         <v>2</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="92">
+      <c r="G95" s="91">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -16556,21 +16608,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="58">
+      <c r="U95" s="119">
         <f t="shared" ref="U95" si="25">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
       <c r="F96" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="92"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -16599,18 +16651,18 @@
         <f t="shared" ref="T96:T97" si="26">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="59"/>
+      <c r="U96" s="120"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="92"/>
+      <c r="G97" s="91"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -16639,20 +16691,20 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U97" s="59"/>
+      <c r="U97" s="120"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="95" t="s">
+      <c r="A98" s="84"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="92">
+      <c r="G98" s="91">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -16683,21 +16735,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="58">
+      <c r="U98" s="119">
         <f t="shared" ref="U98" si="27">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="95"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="104"/>
       <c r="F99" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="92"/>
+      <c r="G99" s="91"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -16726,18 +16778,18 @@
         <f t="shared" ref="T99:T100" si="28">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="59"/>
+      <c r="U99" s="120"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="95"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="104"/>
       <c r="F100" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="92"/>
+      <c r="G100" s="91"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -16766,7 +16818,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U100" s="59"/>
+      <c r="U100" s="120"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -16784,12 +16836,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="96" t="s">
+      <c r="P101" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -16811,12 +16863,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="96" t="s">
+      <c r="P102" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="103"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -16838,12 +16890,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="96" t="s">
+      <c r="P103" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
-      <c r="S103" s="96"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -16865,12 +16917,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="96" t="s">
+      <c r="P104" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
-      <c r="S104" s="96"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -16898,89 +16950,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="70" t="s">
+      <c r="E106" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60" t="s">
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60" t="s">
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="60"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60" t="s">
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
+      <c r="Q106" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="60"/>
-      <c r="S106" s="60"/>
-      <c r="T106" s="61" t="s">
+      <c r="R106" s="92"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="73"/>
-      <c r="H107" s="62" t="s">
+      <c r="A107" s="94"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="I107" s="63"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="62" t="s">
+      <c r="I107" s="101"/>
+      <c r="J107" s="102"/>
+      <c r="K107" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="L107" s="63"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="62" t="s">
+      <c r="L107" s="101"/>
+      <c r="M107" s="102"/>
+      <c r="N107" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="O107" s="63"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="62" t="s">
+      <c r="O107" s="101"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="R107" s="63"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="61"/>
+      <c r="R107" s="101"/>
+      <c r="S107" s="102"/>
+      <c r="T107" s="99"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -17017,15 +17069,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="61"/>
+      <c r="T108" s="99"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="95"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -17070,25 +17122,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="90">
+      <c r="A110" s="84">
         <v>1</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="77" t="s">
+      <c r="C110" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="77" t="s">
+      <c r="D110" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="80" t="s">
+      <c r="E110" s="88" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="92">
+      <c r="G110" s="91">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -17119,21 +17171,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="58">
+      <c r="U110" s="119">
         <f t="shared" ref="U110" si="29">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="81"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="92"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -17162,18 +17214,18 @@
         <f t="shared" ref="T111:T112" si="34">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="59"/>
+      <c r="U111" s="120"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="82"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="90"/>
       <c r="F112" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="91"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -17202,7 +17254,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="U112" s="59"/>
+      <c r="U112" s="120"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -17248,17 +17300,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="97" t="s">
+      <c r="P114" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="73" t="s">
+      <c r="Q114" s="77"/>
+      <c r="R114" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="73" t="s">
+      <c r="S114" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="73" t="s">
+      <c r="T114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -17285,11 +17337,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="100"/>
-      <c r="R115" s="73"/>
-      <c r="S115" s="73"/>
-      <c r="T115" s="73"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="81"/>
+      <c r="S115" s="81"/>
+      <c r="T115" s="81"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -17314,8 +17366,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="101"/>
-      <c r="Q116" s="102"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="80"/>
       <c r="R116" s="53"/>
       <c r="S116" s="53" t="s">
         <v>131</v>
@@ -17347,10 +17399,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="91" t="s">
+      <c r="P117" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="91"/>
+      <c r="Q117" s="75"/>
       <c r="R117" s="55" t="s">
         <v>7</v>
       </c>
@@ -17378,8 +17430,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="91"/>
-      <c r="Q118" s="91"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
       <c r="R118" s="55" t="s">
         <v>8</v>
       </c>
@@ -17407,8 +17459,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="91"/>
-      <c r="Q119" s="91"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
       <c r="R119" s="55" t="s">
         <v>9</v>
       </c>
@@ -17436,12 +17488,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="105" t="s">
+      <c r="P120" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="83"/>
+      <c r="S120" s="83"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -17485,17 +17537,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="97" t="s">
+      <c r="P122" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="98"/>
-      <c r="R122" s="73" t="s">
+      <c r="Q122" s="77"/>
+      <c r="R122" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="73" t="s">
+      <c r="S122" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="103" t="s">
+      <c r="T122" s="66" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -17522,11 +17574,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="99"/>
-      <c r="Q123" s="100"/>
-      <c r="R123" s="73"/>
-      <c r="S123" s="73"/>
-      <c r="T123" s="104"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
+      <c r="T123" s="82"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -17551,8 +17603,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="101"/>
-      <c r="Q124" s="102"/>
+      <c r="P124" s="79"/>
+      <c r="Q124" s="80"/>
       <c r="R124" s="53"/>
       <c r="S124" s="53" t="s">
         <v>131</v>
@@ -17584,10 +17636,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="91" t="s">
+      <c r="P125" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="91"/>
+      <c r="Q125" s="75"/>
       <c r="R125" s="55" t="s">
         <v>7</v>
       </c>
@@ -17615,8 +17667,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="91"/>
-      <c r="Q126" s="91"/>
+      <c r="P126" s="75"/>
+      <c r="Q126" s="75"/>
       <c r="R126" s="55" t="s">
         <v>8</v>
       </c>
@@ -17644,8 +17696,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="91"/>
-      <c r="Q127" s="91"/>
+      <c r="P127" s="75"/>
+      <c r="Q127" s="75"/>
       <c r="R127" s="55" t="s">
         <v>9</v>
       </c>
@@ -17673,12 +17725,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="105" t="s">
+      <c r="P128" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="105"/>
-      <c r="R128" s="105"/>
-      <c r="S128" s="105"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="83"/>
+      <c r="S128" s="83"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -17715,22 +17767,22 @@
       <c r="C130" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="111" t="s">
+      <c r="D130" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="112"/>
-      <c r="F130" s="99" t="s">
+      <c r="E130" s="64"/>
+      <c r="F130" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="103"/>
-      <c r="K130" s="103"/>
-      <c r="L130" s="103"/>
-      <c r="M130" s="103"/>
-      <c r="N130" s="103"/>
-      <c r="O130" s="103"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="66"/>
+      <c r="O130" s="66"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -17738,84 +17790,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="113">
+      <c r="A131" s="67">
         <v>1</v>
       </c>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="73">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="120"/>
-      <c r="F131" s="91" t="s">
+      <c r="E131" s="74"/>
+      <c r="F131" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
-      <c r="J131" s="91"/>
-      <c r="K131" s="91"/>
-      <c r="L131" s="91"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="114"/>
-      <c r="B132" s="117"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="73">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="120"/>
-      <c r="F132" s="91" t="s">
+      <c r="E132" s="74"/>
+      <c r="F132" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
-      <c r="O132" s="91"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="115"/>
-      <c r="B133" s="118"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="72"/>
       <c r="C133" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="73">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="120"/>
-      <c r="F133" s="91" t="s">
+      <c r="E133" s="74"/>
+      <c r="F133" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="91"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="91"/>
-      <c r="J133" s="91"/>
-      <c r="K133" s="91"/>
-      <c r="L133" s="91"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
-      <c r="O133" s="91"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -17823,15 +17875,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="107"/>
-      <c r="D134" s="108">
+      <c r="C134" s="59"/>
+      <c r="D134" s="60">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="109"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -17843,12 +17895,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="110" t="s">
+      <c r="Q134" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="110"/>
-      <c r="S134" s="110"/>
-      <c r="T134" s="110"/>
+      <c r="R134" s="62"/>
+      <c r="S134" s="62"/>
+      <c r="T134" s="62"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -17867,12 +17919,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="110" t="s">
+      <c r="Q135" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="110"/>
-      <c r="S135" s="110"/>
-      <c r="T135" s="110"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -18030,58 +18082,132 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
     <mergeCell ref="A95:A100"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
@@ -18100,132 +18226,58 @@
     <mergeCell ref="G89:G91"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
@@ -18266,8 +18318,8 @@
   </sheetPr>
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A84" zoomScale="69" zoomScaleNormal="70" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="Y125" sqref="Y125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19402,52 +19454,52 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -20060,89 +20112,89 @@
       <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="73" t="s">
+      <c r="G35" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60" t="s">
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60" t="s">
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60" t="s">
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="61" t="s">
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I36" s="122"/>
       <c r="J36" s="123"/>
-      <c r="K36" s="62" t="s">
+      <c r="K36" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="62" t="s">
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="62" t="s">
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="63"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="61"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="102"/>
+      <c r="T36" s="99"/>
     </row>
     <row r="37" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="73"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
@@ -20179,15 +20231,15 @@
       <c r="S37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="61"/>
+      <c r="T37" s="99"/>
     </row>
     <row r="38" spans="1:21" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="69"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="36" t="s">
         <v>4</v>
       </c>
@@ -20232,25 +20284,25 @@
       </c>
     </row>
     <row r="39" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+      <c r="A39" s="108">
         <v>1</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="80" t="s">
+      <c r="E39" s="88" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="83">
+      <c r="G39" s="111">
         <v>1000000</v>
       </c>
       <c r="H39" s="52"/>
@@ -20281,21 +20333,21 @@
         <f>$G$39*(J39+M39+P39+S39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="58">
+      <c r="U39" s="119">
         <f>SUM(T39:T41)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
       <c r="F40" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="84"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="52"/>
       <c r="I40" s="52"/>
       <c r="J40" s="52">
@@ -20324,18 +20376,18 @@
         <f t="shared" ref="T40:T65" si="4">$G$39*(J40+M40+P40+S40)</f>
         <v>0</v>
       </c>
-      <c r="U40" s="59"/>
+      <c r="U40" s="120"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="82"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="85"/>
+      <c r="G41" s="113"/>
       <c r="H41" s="52"/>
       <c r="I41" s="52"/>
       <c r="J41" s="52">
@@ -20364,28 +20416,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U41" s="59"/>
+      <c r="U41" s="120"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+      <c r="A42" s="108">
         <v>2</v>
       </c>
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="D42" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="111">
         <v>1000000</v>
       </c>
       <c r="H42" s="52"/>
@@ -20416,21 +20468,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U42" s="58">
+      <c r="U42" s="119">
         <f t="shared" ref="U42" si="5">SUM(T42:T44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="84"/>
+      <c r="G43" s="112"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="52">
@@ -20459,18 +20511,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U43" s="59"/>
+      <c r="U43" s="120"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
+      <c r="A44" s="110"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="85"/>
+      <c r="G44" s="113"/>
       <c r="H44" s="52"/>
       <c r="I44" s="52"/>
       <c r="J44" s="52">
@@ -20499,28 +20551,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U44" s="59"/>
+      <c r="U44" s="120"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+      <c r="A45" s="108">
         <v>3</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="80" t="s">
+      <c r="E45" s="88" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="111">
         <v>1000000</v>
       </c>
       <c r="H45" s="52"/>
@@ -20551,21 +20603,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U45" s="58">
+      <c r="U45" s="119">
         <f t="shared" ref="U45" si="6">SUM(T45:T47)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="84"/>
+      <c r="G46" s="112"/>
       <c r="H46" s="52"/>
       <c r="I46" s="52"/>
       <c r="J46" s="52">
@@ -20594,18 +20646,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U46" s="59"/>
+      <c r="U46" s="120"/>
     </row>
     <row r="47" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
+      <c r="A47" s="110"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="85"/>
+      <c r="G47" s="113"/>
       <c r="H47" s="52"/>
       <c r="I47" s="52"/>
       <c r="J47" s="52">
@@ -20634,28 +20686,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U47" s="59"/>
+      <c r="U47" s="120"/>
     </row>
     <row r="48" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74">
+      <c r="A48" s="108">
         <v>4</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="80" t="s">
+      <c r="D48" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="88" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="83">
+      <c r="G48" s="111">
         <v>1000000</v>
       </c>
       <c r="H48" s="52"/>
@@ -20686,21 +20738,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U48" s="58">
+      <c r="U48" s="119">
         <f t="shared" ref="U48" si="7">SUM(T48:T50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="84"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="52"/>
       <c r="I49" s="52"/>
       <c r="J49" s="52">
@@ -20729,18 +20781,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U49" s="59"/>
+      <c r="U49" s="120"/>
     </row>
     <row r="50" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
       <c r="F50" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="85"/>
+      <c r="G50" s="113"/>
       <c r="H50" s="52"/>
       <c r="I50" s="52"/>
       <c r="J50" s="52">
@@ -20769,28 +20821,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U50" s="59"/>
+      <c r="U50" s="120"/>
     </row>
     <row r="51" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+      <c r="A51" s="108">
         <v>5</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="88" t="s">
         <v>78</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="83">
+      <c r="G51" s="111">
         <v>1000000</v>
       </c>
       <c r="H51" s="52"/>
@@ -20821,21 +20873,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U51" s="58">
+      <c r="U51" s="119">
         <f t="shared" ref="U51" si="8">SUM(T51:T53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="112"/>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
       <c r="J52" s="52">
@@ -20864,18 +20916,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U52" s="59"/>
+      <c r="U52" s="120"/>
     </row>
     <row r="53" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="78"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
       <c r="F53" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="113"/>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
       <c r="J53" s="52">
@@ -20904,22 +20956,22 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U53" s="59"/>
+      <c r="U53" s="120"/>
     </row>
     <row r="54" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="80" t="s">
+      <c r="A54" s="109"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="88" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="83">
+      <c r="G54" s="111">
         <v>1000000</v>
       </c>
       <c r="H54" s="52"/>
@@ -20950,21 +21002,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U54" s="58">
+      <c r="U54" s="119">
         <f t="shared" ref="U54" si="9">SUM(T54:T56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
       <c r="F55" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="112"/>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
       <c r="J55" s="52">
@@ -20993,18 +21045,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U55" s="59"/>
+      <c r="U55" s="120"/>
     </row>
     <row r="56" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G56" s="85"/>
+      <c r="G56" s="113"/>
       <c r="H56" s="52"/>
       <c r="I56" s="52"/>
       <c r="J56" s="52">
@@ -21033,28 +21085,28 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U56" s="59"/>
+      <c r="U56" s="120"/>
     </row>
     <row r="57" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+      <c r="A57" s="108">
         <v>6</v>
       </c>
-      <c r="B57" s="77" t="s">
+      <c r="B57" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="80" t="s">
+      <c r="E57" s="88" t="s">
         <v>65</v>
       </c>
       <c r="F57" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="111">
         <v>1000000</v>
       </c>
       <c r="H57" s="52"/>
@@ -21085,21 +21137,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U57" s="58">
+      <c r="U57" s="119">
         <f>SUM(T57:T59)-SUM(U76)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="86"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
       <c r="F58" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="112"/>
       <c r="H58" s="52"/>
       <c r="I58" s="52"/>
       <c r="J58" s="52">
@@ -21128,18 +21180,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U58" s="59"/>
+      <c r="U58" s="120"/>
     </row>
     <row r="59" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
       <c r="F59" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="85"/>
+      <c r="G59" s="113"/>
       <c r="H59" s="52"/>
       <c r="I59" s="52"/>
       <c r="J59" s="52">
@@ -21168,24 +21220,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U59" s="59"/>
+      <c r="U59" s="120"/>
     </row>
     <row r="60" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="77" t="s">
+      <c r="A60" s="109"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="D60" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="E60" s="77" t="s">
+      <c r="E60" s="85" t="s">
         <v>158</v>
       </c>
       <c r="F60" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G60" s="83">
+      <c r="G60" s="111">
         <v>1000000</v>
       </c>
       <c r="H60" s="52"/>
@@ -21216,21 +21268,21 @@
         <f t="shared" ref="T60:T62" si="11">$G$39*(J60+M60+P60+S60)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="58">
+      <c r="U60" s="119">
         <f t="shared" ref="U60" si="12">SUM(T60:T62)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="78"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="84"/>
+      <c r="G61" s="112"/>
       <c r="H61" s="52"/>
       <c r="I61" s="52"/>
       <c r="J61" s="52">
@@ -21259,18 +21311,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U61" s="59"/>
+      <c r="U61" s="120"/>
     </row>
     <row r="62" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="76"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="79"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="87"/>
       <c r="F62" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="85"/>
+      <c r="G62" s="113"/>
       <c r="H62" s="52"/>
       <c r="I62" s="52"/>
       <c r="J62" s="52">
@@ -21299,28 +21351,28 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U62" s="59"/>
+      <c r="U62" s="120"/>
     </row>
     <row r="63" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+      <c r="A63" s="108">
         <v>7</v>
       </c>
-      <c r="B63" s="77" t="s">
+      <c r="B63" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="E63" s="80" t="s">
+      <c r="E63" s="88" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="83">
+      <c r="G63" s="111">
         <v>1000000</v>
       </c>
       <c r="H63" s="52"/>
@@ -21351,21 +21403,21 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U63" s="58">
+      <c r="U63" s="119">
         <f t="shared" ref="U63" si="13">SUM(T63:T65)</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
       <c r="F64" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="112"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
       <c r="J64" s="52">
@@ -21394,18 +21446,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U64" s="59"/>
+      <c r="U64" s="120"/>
     </row>
     <row r="65" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
+      <c r="A65" s="110"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
       <c r="F65" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="85"/>
+      <c r="G65" s="113"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
       <c r="J65" s="52">
@@ -21434,7 +21486,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U65" s="59"/>
+      <c r="U65" s="120"/>
     </row>
     <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46"/>
@@ -21453,11 +21505,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="28"/>
-      <c r="Q66" s="89" t="s">
+      <c r="Q66" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="R66" s="89"/>
-      <c r="S66" s="89"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="107"/>
       <c r="T66" s="45">
         <f>T39+T42+T45+T48+T51+T54+T57+T60+T63</f>
         <v>0</v>
@@ -21480,11 +21532,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="28"/>
-      <c r="Q67" s="89" t="s">
+      <c r="Q67" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
       <c r="T67" s="45">
         <f>T40+T43+T46+T49+T52+T55+T58+T61+T64</f>
         <v>0</v>
@@ -21507,11 +21559,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="28"/>
-      <c r="Q68" s="89" t="s">
+      <c r="Q68" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="89"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
       <c r="T68" s="45">
         <f>T41+T44+T47+T50+T53+T56+T59+T62+T65</f>
         <v>0</v>
@@ -21534,11 +21586,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
-      <c r="Q69" s="89" t="s">
+      <c r="Q69" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="107"/>
       <c r="T69" s="45">
         <f>T66+T67+T68</f>
         <v>0</v>
@@ -21601,89 +21653,89 @@
       <c r="S71" s="14"/>
     </row>
     <row r="72" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="70" t="s">
+      <c r="E72" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="73" t="s">
+      <c r="G72" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="60" t="s">
+      <c r="H72" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60" t="s">
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60" t="s">
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60" t="s">
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="61" t="s">
+      <c r="R72" s="92"/>
+      <c r="S72" s="92"/>
+      <c r="T72" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:27" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="71"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="73"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I73" s="122"/>
       <c r="J73" s="123"/>
-      <c r="K73" s="62" t="s">
+      <c r="K73" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="63"/>
-      <c r="M73" s="64"/>
-      <c r="N73" s="62" t="s">
+      <c r="L73" s="101"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="63"/>
-      <c r="P73" s="64"/>
-      <c r="Q73" s="62" t="s">
+      <c r="O73" s="101"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R73" s="63"/>
-      <c r="S73" s="64"/>
-      <c r="T73" s="61"/>
+      <c r="R73" s="101"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="99"/>
     </row>
     <row r="74" spans="1:27" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="73"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="33" t="s">
         <v>24</v>
       </c>
@@ -21720,15 +21772,15 @@
       <c r="S74" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T74" s="61"/>
+      <c r="T74" s="99"/>
     </row>
     <row r="75" spans="1:27" s="35" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="69"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="69"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="95"/>
       <c r="G75" s="36" t="s">
         <v>4</v>
       </c>
@@ -21773,25 +21825,25 @@
       </c>
     </row>
     <row r="76" spans="1:27" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="90">
+      <c r="A76" s="84">
         <v>1</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="91" t="s">
+      <c r="C76" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="91" t="s">
+      <c r="D76" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="E76" s="91" t="s">
+      <c r="E76" s="75" t="s">
         <v>64</v>
       </c>
       <c r="F76" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="92">
+      <c r="G76" s="91">
         <v>1000000</v>
       </c>
       <c r="H76" s="52"/>
@@ -21822,21 +21874,21 @@
         <f>$G$76*(J76+M76+P76+S76)</f>
         <v>0</v>
       </c>
-      <c r="U76" s="58">
+      <c r="U76" s="119">
         <f>SUM(T76:T78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="91"/>
+      <c r="A77" s="84"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
       <c r="F77" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="92"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
       <c r="J77" s="52">
@@ -21865,18 +21917,18 @@
         <f t="shared" ref="T77:T78" si="18">$G$76*(J77+M77+P77+S77)</f>
         <v>0</v>
       </c>
-      <c r="U77" s="59"/>
+      <c r="U77" s="120"/>
     </row>
     <row r="78" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="90"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="91"/>
+      <c r="A78" s="84"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
       <c r="F78" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G78" s="92"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
       <c r="J78" s="52">
@@ -21905,7 +21957,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U78" s="59"/>
+      <c r="U78" s="120"/>
     </row>
     <row r="79" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -21925,10 +21977,10 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="16"/>
-      <c r="R79" s="93" t="s">
+      <c r="R79" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="S79" s="94"/>
+      <c r="S79" s="106"/>
       <c r="T79" s="32">
         <f>SUM(T76:T78)</f>
         <v>0</v>
@@ -21991,89 +22043,89 @@
       <c r="S81" s="14"/>
     </row>
     <row r="82" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B82" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="67" t="s">
+      <c r="C82" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="67" t="s">
+      <c r="F82" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="73" t="s">
+      <c r="G82" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="60" t="s">
+      <c r="H82" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60" t="s">
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60" t="s">
+      <c r="L82" s="92"/>
+      <c r="M82" s="92"/>
+      <c r="N82" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O82" s="60"/>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60" t="s">
+      <c r="O82" s="92"/>
+      <c r="P82" s="92"/>
+      <c r="Q82" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="61" t="s">
+      <c r="R82" s="92"/>
+      <c r="S82" s="92"/>
+      <c r="T82" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="73"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="81"/>
       <c r="H83" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I83" s="122"/>
       <c r="J83" s="123"/>
-      <c r="K83" s="62" t="s">
+      <c r="K83" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="62" t="s">
+      <c r="L83" s="101"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O83" s="63"/>
-      <c r="P83" s="64"/>
-      <c r="Q83" s="62" t="s">
+      <c r="O83" s="101"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R83" s="63"/>
-      <c r="S83" s="64"/>
-      <c r="T83" s="61"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="99"/>
     </row>
     <row r="84" spans="1:21" s="15" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="73"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="33" t="s">
         <v>24</v>
       </c>
@@ -22110,15 +22162,15 @@
       <c r="S84" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="T84" s="61"/>
+      <c r="T84" s="99"/>
     </row>
     <row r="85" spans="1:21" s="35" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="98"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="95"/>
       <c r="G85" s="36" t="s">
         <v>4</v>
       </c>
@@ -22163,25 +22215,25 @@
       </c>
     </row>
     <row r="86" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="90">
+      <c r="A86" s="84">
         <v>1</v>
       </c>
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="91" t="s">
+      <c r="C86" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D86" s="90" t="s">
+      <c r="D86" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="91" t="s">
+      <c r="E86" s="75" t="s">
         <v>16</v>
       </c>
       <c r="F86" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G86" s="92">
+      <c r="G86" s="91">
         <v>1000000</v>
       </c>
       <c r="H86" s="52"/>
@@ -22212,21 +22264,21 @@
         <f>$G$86*(J86+M86+P86+S86)</f>
         <v>0</v>
       </c>
-      <c r="U86" s="58">
+      <c r="U86" s="119">
         <f>SUM(T86:T88)</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="90"/>
-      <c r="B87" s="91"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="91"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="75"/>
       <c r="F87" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="92"/>
+      <c r="G87" s="91"/>
       <c r="H87" s="52"/>
       <c r="I87" s="52"/>
       <c r="J87" s="52">
@@ -22255,18 +22307,18 @@
         <f t="shared" ref="T87:T88" si="23">$G$86*(J87+M87+P87+S87)</f>
         <v>0</v>
       </c>
-      <c r="U87" s="59"/>
+      <c r="U87" s="120"/>
     </row>
     <row r="88" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="91"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="75"/>
       <c r="F88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="92"/>
+      <c r="G88" s="91"/>
       <c r="H88" s="52"/>
       <c r="I88" s="52"/>
       <c r="J88" s="52">
@@ -22295,20 +22347,20 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="U88" s="59"/>
+      <c r="U88" s="120"/>
     </row>
     <row r="89" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="90"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="95" t="s">
+      <c r="A89" s="84"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="104" t="s">
         <v>17</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G89" s="92">
+      <c r="G89" s="91">
         <v>1000000</v>
       </c>
       <c r="H89" s="52"/>
@@ -22339,21 +22391,21 @@
         <f>$G$89*(J89+M89+P89+S89)</f>
         <v>0</v>
       </c>
-      <c r="U89" s="58">
+      <c r="U89" s="119">
         <f>SUM(T89:T91)</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="90"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="91"/>
-      <c r="D90" s="90"/>
-      <c r="E90" s="95"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="75"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="92"/>
+      <c r="G90" s="91"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
       <c r="J90" s="52">
@@ -22382,18 +22434,18 @@
         <f t="shared" ref="T90:T91" si="24">$G$89*(J90+M90+P90+S90)</f>
         <v>0</v>
       </c>
-      <c r="U90" s="59"/>
+      <c r="U90" s="120"/>
     </row>
     <row r="91" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="90"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="91"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="95"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="104"/>
       <c r="F91" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G91" s="92"/>
+      <c r="G91" s="91"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
       <c r="J91" s="52">
@@ -22422,20 +22474,20 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U91" s="59"/>
+      <c r="U91" s="120"/>
     </row>
     <row r="92" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="91"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="95" t="s">
+      <c r="A92" s="84"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="104" t="s">
         <v>18</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G92" s="92">
+      <c r="G92" s="91">
         <v>1000000</v>
       </c>
       <c r="H92" s="52"/>
@@ -22466,21 +22518,21 @@
         <f>$G$92*(J92+M92+P92+S92)</f>
         <v>0</v>
       </c>
-      <c r="U92" s="58">
+      <c r="U92" s="119">
         <f t="shared" ref="U92" si="25">SUM(T92:T94)</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="95"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="75"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="104"/>
       <c r="F93" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="92"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
       <c r="J93" s="52">
@@ -22509,18 +22561,18 @@
         <f t="shared" ref="T93:T94" si="26">$G$92*(J93+M93+P93+S93)</f>
         <v>0</v>
       </c>
-      <c r="U93" s="59"/>
+      <c r="U93" s="120"/>
     </row>
     <row r="94" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="95"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="75"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="104"/>
       <c r="F94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="92"/>
+      <c r="G94" s="91"/>
       <c r="H94" s="52"/>
       <c r="I94" s="52"/>
       <c r="J94" s="52">
@@ -22549,28 +22601,28 @@
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U94" s="59"/>
+      <c r="U94" s="120"/>
     </row>
     <row r="95" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="84">
         <v>2</v>
       </c>
-      <c r="B95" s="91" t="s">
+      <c r="B95" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C95" s="91" t="s">
+      <c r="C95" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D95" s="91" t="s">
+      <c r="D95" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E95" s="91" t="s">
+      <c r="E95" s="75" t="s">
         <v>84</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G95" s="92">
+      <c r="G95" s="91">
         <v>1000000</v>
       </c>
       <c r="H95" s="52"/>
@@ -22601,21 +22653,21 @@
         <f>$G$95*(J95+M95+P95+S95)</f>
         <v>0</v>
       </c>
-      <c r="U95" s="58">
+      <c r="U95" s="119">
         <f t="shared" ref="U95" si="27">SUM(T95:T97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
       <c r="F96" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="92"/>
+      <c r="G96" s="91"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
       <c r="J96" s="52">
@@ -22644,18 +22696,18 @@
         <f t="shared" ref="T96:T97" si="28">$G$95*(J96+M96+P96+S96)</f>
         <v>0</v>
       </c>
-      <c r="U96" s="59"/>
+      <c r="U96" s="120"/>
     </row>
     <row r="97" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="92"/>
+      <c r="G97" s="91"/>
       <c r="H97" s="52"/>
       <c r="I97" s="52"/>
       <c r="J97" s="52">
@@ -22684,20 +22736,20 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="U97" s="59"/>
+      <c r="U97" s="120"/>
     </row>
     <row r="98" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="90"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="95" t="s">
+      <c r="A98" s="84"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="75"/>
+      <c r="E98" s="104" t="s">
         <v>85</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G98" s="92">
+      <c r="G98" s="91">
         <v>1000000</v>
       </c>
       <c r="H98" s="52"/>
@@ -22728,21 +22780,21 @@
         <f>$G$98*(J98+M98+P98+S98)</f>
         <v>0</v>
       </c>
-      <c r="U98" s="58">
+      <c r="U98" s="119">
         <f t="shared" ref="U98" si="29">SUM(T98:T100)</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="95"/>
+      <c r="A99" s="84"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="75"/>
+      <c r="E99" s="104"/>
       <c r="F99" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="92"/>
+      <c r="G99" s="91"/>
       <c r="H99" s="52"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52">
@@ -22771,18 +22823,18 @@
         <f t="shared" ref="T99:T100" si="30">$G$98*(J99+M99+P99+S99)</f>
         <v>0</v>
       </c>
-      <c r="U99" s="59"/>
+      <c r="U99" s="120"/>
     </row>
     <row r="100" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="90"/>
-      <c r="B100" s="91"/>
-      <c r="C100" s="91"/>
-      <c r="D100" s="91"/>
-      <c r="E100" s="95"/>
+      <c r="A100" s="84"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="75"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="104"/>
       <c r="F100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="92"/>
+      <c r="G100" s="91"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52">
@@ -22811,7 +22863,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="U100" s="59"/>
+      <c r="U100" s="120"/>
     </row>
     <row r="101" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
@@ -22829,12 +22881,12 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
-      <c r="P101" s="96" t="s">
+      <c r="P101" s="103" t="s">
         <v>150</v>
       </c>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
+      <c r="Q101" s="103"/>
+      <c r="R101" s="103"/>
+      <c r="S101" s="103"/>
       <c r="T101" s="32">
         <f>T86+T89+T92+T95+T98</f>
         <v>0</v>
@@ -22856,12 +22908,12 @@
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
-      <c r="P102" s="96" t="s">
+      <c r="P102" s="103" t="s">
         <v>151</v>
       </c>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
+      <c r="Q102" s="103"/>
+      <c r="R102" s="103"/>
+      <c r="S102" s="103"/>
       <c r="T102" s="32">
         <f>T87+T90+T93+T96+T99</f>
         <v>0</v>
@@ -22883,12 +22935,12 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
-      <c r="P103" s="96" t="s">
+      <c r="P103" s="103" t="s">
         <v>152</v>
       </c>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
-      <c r="S103" s="96"/>
+      <c r="Q103" s="103"/>
+      <c r="R103" s="103"/>
+      <c r="S103" s="103"/>
       <c r="T103" s="32">
         <f>T88+T91+T94+T97+T100</f>
         <v>0</v>
@@ -22910,12 +22962,12 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
-      <c r="P104" s="96" t="s">
+      <c r="P104" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
-      <c r="S104" s="96"/>
+      <c r="Q104" s="103"/>
+      <c r="R104" s="103"/>
+      <c r="S104" s="103"/>
       <c r="T104" s="32">
         <f>SUM(T101:T103)</f>
         <v>0</v>
@@ -22943,89 +22995,89 @@
       <c r="S105" s="14"/>
     </row>
     <row r="106" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="67" t="s">
+      <c r="A106" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="67" t="s">
+      <c r="C106" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E106" s="70" t="s">
+      <c r="E106" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="67" t="s">
+      <c r="F106" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="73" t="s">
+      <c r="G106" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I106" s="60"/>
-      <c r="J106" s="60"/>
-      <c r="K106" s="60" t="s">
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="L106" s="60"/>
-      <c r="M106" s="60"/>
-      <c r="N106" s="60" t="s">
+      <c r="L106" s="92"/>
+      <c r="M106" s="92"/>
+      <c r="N106" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="O106" s="60"/>
-      <c r="P106" s="60"/>
-      <c r="Q106" s="60" t="s">
+      <c r="O106" s="92"/>
+      <c r="P106" s="92"/>
+      <c r="Q106" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="R106" s="60"/>
-      <c r="S106" s="60"/>
-      <c r="T106" s="61" t="s">
+      <c r="R106" s="92"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="6" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="73"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="94"/>
+      <c r="G107" s="81"/>
       <c r="H107" s="121" t="s">
         <v>143</v>
       </c>
       <c r="I107" s="122"/>
       <c r="J107" s="123"/>
-      <c r="K107" s="62" t="s">
+      <c r="K107" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="63"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="62" t="s">
+      <c r="L107" s="101"/>
+      <c r="M107" s="102"/>
+      <c r="N107" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="O107" s="63"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="62" t="s">
+      <c r="O107" s="101"/>
+      <c r="P107" s="102"/>
+      <c r="Q107" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="R107" s="63"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="61"/>
+      <c r="R107" s="101"/>
+      <c r="S107" s="102"/>
+      <c r="T107" s="99"/>
     </row>
     <row r="108" spans="1:21" s="15" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="73"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="94"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="33" t="s">
         <v>24</v>
       </c>
@@ -23062,15 +23114,15 @@
       <c r="S108" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="T108" s="61"/>
+      <c r="T108" s="99"/>
     </row>
     <row r="109" spans="1:21" s="35" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="98"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="95"/>
       <c r="G109" s="36" t="s">
         <v>4</v>
       </c>
@@ -23115,25 +23167,25 @@
       </c>
     </row>
     <row r="110" spans="1:21" s="31" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="90">
+      <c r="A110" s="84">
         <v>1</v>
       </c>
-      <c r="B110" s="77" t="s">
+      <c r="B110" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="77" t="s">
+      <c r="C110" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D110" s="77" t="s">
+      <c r="D110" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="80" t="s">
+      <c r="E110" s="88" t="s">
         <v>128</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G110" s="92">
+      <c r="G110" s="91">
         <v>1000000</v>
       </c>
       <c r="H110" s="52"/>
@@ -23164,21 +23216,21 @@
         <f>$G$110*(J110+M110+P110+S110)</f>
         <v>0</v>
       </c>
-      <c r="U110" s="58">
+      <c r="U110" s="119">
         <f t="shared" ref="U110" si="31">SUM(T110:T112)</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="81"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="92"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
       <c r="J111" s="52">
@@ -23207,18 +23259,18 @@
         <f t="shared" ref="T111:T112" si="36">$G$110*(J111+M111+P111+S111)</f>
         <v>0</v>
       </c>
-      <c r="U111" s="59"/>
+      <c r="U111" s="120"/>
     </row>
     <row r="112" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="79"/>
-      <c r="E112" s="82"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="90"/>
       <c r="F112" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="92"/>
+      <c r="G112" s="91"/>
       <c r="H112" s="52"/>
       <c r="I112" s="52"/>
       <c r="J112" s="52">
@@ -23247,7 +23299,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U112" s="59"/>
+      <c r="U112" s="120"/>
     </row>
     <row r="113" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -23293,17 +23345,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-      <c r="P114" s="97" t="s">
+      <c r="P114" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="Q114" s="98"/>
-      <c r="R114" s="73" t="s">
+      <c r="Q114" s="77"/>
+      <c r="R114" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S114" s="73" t="s">
+      <c r="S114" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T114" s="73" t="s">
+      <c r="T114" s="81" t="s">
         <v>33</v>
       </c>
       <c r="U114" s="2"/>
@@ -23330,11 +23382,11 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-      <c r="P115" s="99"/>
-      <c r="Q115" s="100"/>
-      <c r="R115" s="73"/>
-      <c r="S115" s="73"/>
-      <c r="T115" s="73"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="78"/>
+      <c r="R115" s="81"/>
+      <c r="S115" s="81"/>
+      <c r="T115" s="81"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
@@ -23359,8 +23411,8 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-      <c r="P116" s="101"/>
-      <c r="Q116" s="102"/>
+      <c r="P116" s="79"/>
+      <c r="Q116" s="80"/>
       <c r="R116" s="41"/>
       <c r="S116" s="41" t="s">
         <v>131</v>
@@ -23392,10 +23444,10 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-      <c r="P117" s="91" t="s">
+      <c r="P117" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="Q117" s="91"/>
+      <c r="Q117" s="75"/>
       <c r="R117" s="43" t="s">
         <v>7</v>
       </c>
@@ -23423,8 +23475,8 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-      <c r="P118" s="91"/>
-      <c r="Q118" s="91"/>
+      <c r="P118" s="75"/>
+      <c r="Q118" s="75"/>
       <c r="R118" s="43" t="s">
         <v>8</v>
       </c>
@@ -23452,8 +23504,8 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-      <c r="P119" s="91"/>
-      <c r="Q119" s="91"/>
+      <c r="P119" s="75"/>
+      <c r="Q119" s="75"/>
       <c r="R119" s="43" t="s">
         <v>9</v>
       </c>
@@ -23481,12 +23533,12 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-      <c r="P120" s="105" t="s">
+      <c r="P120" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
+      <c r="Q120" s="83"/>
+      <c r="R120" s="83"/>
+      <c r="S120" s="83"/>
       <c r="T120" s="32">
         <f>SUM(T117:T119)</f>
         <v>0</v>
@@ -23530,17 +23582,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="97" t="s">
+      <c r="P122" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="Q122" s="98"/>
-      <c r="R122" s="73" t="s">
+      <c r="Q122" s="77"/>
+      <c r="R122" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="S122" s="73" t="s">
+      <c r="S122" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="T122" s="103" t="s">
+      <c r="T122" s="66" t="s">
         <v>33</v>
       </c>
       <c r="U122" s="2"/>
@@ -23567,11 +23619,11 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-      <c r="P123" s="99"/>
-      <c r="Q123" s="100"/>
-      <c r="R123" s="73"/>
-      <c r="S123" s="73"/>
-      <c r="T123" s="104"/>
+      <c r="P123" s="65"/>
+      <c r="Q123" s="78"/>
+      <c r="R123" s="81"/>
+      <c r="S123" s="81"/>
+      <c r="T123" s="82"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
@@ -23596,8 +23648,8 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-      <c r="P124" s="101"/>
-      <c r="Q124" s="102"/>
+      <c r="P124" s="79"/>
+      <c r="Q124" s="80"/>
       <c r="R124" s="41"/>
       <c r="S124" s="41" t="s">
         <v>131</v>
@@ -23629,10 +23681,10 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-      <c r="P125" s="91" t="s">
+      <c r="P125" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="Q125" s="91"/>
+      <c r="Q125" s="75"/>
       <c r="R125" s="43" t="s">
         <v>7</v>
       </c>
@@ -23660,8 +23712,8 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-      <c r="P126" s="91"/>
-      <c r="Q126" s="91"/>
+      <c r="P126" s="75"/>
+      <c r="Q126" s="75"/>
       <c r="R126" s="43" t="s">
         <v>8</v>
       </c>
@@ -23689,8 +23741,8 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-      <c r="P127" s="91"/>
-      <c r="Q127" s="91"/>
+      <c r="P127" s="75"/>
+      <c r="Q127" s="75"/>
       <c r="R127" s="43" t="s">
         <v>9</v>
       </c>
@@ -23718,12 +23770,12 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-      <c r="P128" s="105" t="s">
+      <c r="P128" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="Q128" s="105"/>
-      <c r="R128" s="105"/>
-      <c r="S128" s="105"/>
+      <c r="Q128" s="83"/>
+      <c r="R128" s="83"/>
+      <c r="S128" s="83"/>
       <c r="T128" s="32">
         <f>SUM(T125:T127)</f>
         <v>0</v>
@@ -23760,22 +23812,22 @@
       <c r="C130" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="111" t="s">
+      <c r="D130" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="E130" s="112"/>
-      <c r="F130" s="99" t="s">
+      <c r="E130" s="64"/>
+      <c r="F130" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="103"/>
-      <c r="H130" s="103"/>
-      <c r="I130" s="103"/>
-      <c r="J130" s="103"/>
-      <c r="K130" s="103"/>
-      <c r="L130" s="103"/>
-      <c r="M130" s="103"/>
-      <c r="N130" s="103"/>
-      <c r="O130" s="103"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="66"/>
+      <c r="N130" s="66"/>
+      <c r="O130" s="66"/>
       <c r="P130" s="16"/>
       <c r="Q130" s="16"/>
       <c r="R130" s="16"/>
@@ -23783,84 +23835,84 @@
       <c r="T130" s="3"/>
     </row>
     <row r="131" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="113">
+      <c r="A131" s="67">
         <v>1</v>
       </c>
-      <c r="B131" s="116" t="s">
+      <c r="B131" s="70" t="s">
         <v>153</v>
       </c>
       <c r="C131" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="119">
+      <c r="D131" s="73">
         <f>T66-T76+T101+T125</f>
         <v>0</v>
       </c>
-      <c r="E131" s="120"/>
-      <c r="F131" s="91" t="s">
+      <c r="E131" s="74"/>
+      <c r="F131" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
-      <c r="I131" s="91"/>
-      <c r="J131" s="91"/>
-      <c r="K131" s="91"/>
-      <c r="L131" s="91"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
-      <c r="O131" s="91"/>
+      <c r="G131" s="75"/>
+      <c r="H131" s="75"/>
+      <c r="I131" s="75"/>
+      <c r="J131" s="75"/>
+      <c r="K131" s="75"/>
+      <c r="L131" s="75"/>
+      <c r="M131" s="75"/>
+      <c r="N131" s="75"/>
+      <c r="O131" s="75"/>
       <c r="S131" s="28"/>
       <c r="T131" s="3"/>
     </row>
     <row r="132" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="114"/>
-      <c r="B132" s="117"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="71"/>
       <c r="C132" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="119">
+      <c r="D132" s="73">
         <f>T67-T77+T102+T126</f>
         <v>0</v>
       </c>
-      <c r="E132" s="120"/>
-      <c r="F132" s="91" t="s">
+      <c r="E132" s="74"/>
+      <c r="F132" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
-      <c r="L132" s="91"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
-      <c r="O132" s="91"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="75"/>
+      <c r="L132" s="75"/>
+      <c r="M132" s="75"/>
+      <c r="N132" s="75"/>
+      <c r="O132" s="75"/>
       <c r="S132" s="28"/>
       <c r="T132" s="3"/>
     </row>
     <row r="133" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="115"/>
-      <c r="B133" s="118"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="72"/>
       <c r="C133" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D133" s="119">
+      <c r="D133" s="73">
         <f>T68-T78+T103+T127</f>
         <v>0</v>
       </c>
-      <c r="E133" s="120"/>
-      <c r="F133" s="91" t="s">
+      <c r="E133" s="74"/>
+      <c r="F133" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G133" s="91"/>
-      <c r="H133" s="91"/>
-      <c r="I133" s="91"/>
-      <c r="J133" s="91"/>
-      <c r="K133" s="91"/>
-      <c r="L133" s="91"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
-      <c r="O133" s="91"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="75"/>
+      <c r="I133" s="75"/>
+      <c r="J133" s="75"/>
+      <c r="K133" s="75"/>
+      <c r="L133" s="75"/>
+      <c r="M133" s="75"/>
+      <c r="N133" s="75"/>
+      <c r="O133" s="75"/>
       <c r="S133" s="28"/>
       <c r="T133" s="3"/>
     </row>
@@ -23868,15 +23920,15 @@
       <c r="A134" s="44">
         <v>2</v>
       </c>
-      <c r="B134" s="106" t="s">
+      <c r="B134" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C134" s="107"/>
-      <c r="D134" s="108">
+      <c r="C134" s="59"/>
+      <c r="D134" s="60">
         <f>SUM(D131:E133)</f>
         <v>0</v>
       </c>
-      <c r="E134" s="109"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="3"/>
       <c r="G134" s="26"/>
       <c r="H134" s="3"/>
@@ -23888,12 +23940,12 @@
       <c r="N134" s="28"/>
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
-      <c r="Q134" s="110" t="s">
+      <c r="Q134" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="R134" s="110"/>
-      <c r="S134" s="110"/>
-      <c r="T134" s="110"/>
+      <c r="R134" s="62"/>
+      <c r="S134" s="62"/>
+      <c r="T134" s="62"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
@@ -23912,12 +23964,12 @@
       <c r="N135" s="28"/>
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
-      <c r="Q135" s="110" t="s">
+      <c r="Q135" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R135" s="110"/>
-      <c r="S135" s="110"/>
-      <c r="T135" s="110"/>
+      <c r="R135" s="62"/>
+      <c r="S135" s="62"/>
+      <c r="T135" s="62"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
@@ -24075,58 +24127,132 @@
     </row>
   </sheetData>
   <mergeCells count="196">
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="Q134:T134"/>
-    <mergeCell ref="Q135:T135"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:O130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:O131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:O132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:O133"/>
-    <mergeCell ref="P122:Q124"/>
-    <mergeCell ref="R122:R123"/>
-    <mergeCell ref="S122:S123"/>
-    <mergeCell ref="T122:T123"/>
-    <mergeCell ref="P125:Q127"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="R114:R115"/>
-    <mergeCell ref="S114:S115"/>
-    <mergeCell ref="T114:T115"/>
-    <mergeCell ref="P117:Q119"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="Q106:S106"/>
-    <mergeCell ref="T106:T108"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="Q107:S107"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="U76:U78"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="U42:U44"/>
+    <mergeCell ref="U45:U47"/>
+    <mergeCell ref="U48:U50"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="U54:U56"/>
+    <mergeCell ref="U57:U59"/>
+    <mergeCell ref="U60:U62"/>
+    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="Q72:S72"/>
+    <mergeCell ref="T72:T74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="Q73:S73"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q68:S68"/>
+    <mergeCell ref="Q69:S69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="N82:P82"/>
+    <mergeCell ref="Q82:S82"/>
+    <mergeCell ref="T82:T84"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:P83"/>
+    <mergeCell ref="Q83:S83"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
     <mergeCell ref="A95:A100"/>
     <mergeCell ref="B95:B100"/>
     <mergeCell ref="C95:C100"/>
@@ -24145,132 +24271,58 @@
     <mergeCell ref="G89:G91"/>
     <mergeCell ref="E92:E94"/>
     <mergeCell ref="G92:G94"/>
-    <mergeCell ref="N82:P82"/>
-    <mergeCell ref="Q82:S82"/>
-    <mergeCell ref="T82:T84"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:P83"/>
-    <mergeCell ref="Q83:S83"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="G76:G78"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="Q72:S72"/>
-    <mergeCell ref="T72:T74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="Q73:S73"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q68:S68"/>
-    <mergeCell ref="Q69:S69"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:B62"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="U76:U78"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="U42:U44"/>
-    <mergeCell ref="U45:U47"/>
-    <mergeCell ref="U48:U50"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="U54:U56"/>
-    <mergeCell ref="U57:U59"/>
-    <mergeCell ref="U60:U62"/>
-    <mergeCell ref="U63:U65"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="Q106:S106"/>
+    <mergeCell ref="T106:T108"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="Q107:S107"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="P122:Q124"/>
+    <mergeCell ref="R122:R123"/>
+    <mergeCell ref="S122:S123"/>
+    <mergeCell ref="T122:T123"/>
+    <mergeCell ref="P125:Q127"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="P114:Q116"/>
+    <mergeCell ref="R114:R115"/>
+    <mergeCell ref="S114:S115"/>
+    <mergeCell ref="T114:T115"/>
+    <mergeCell ref="P117:Q119"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="Q134:T134"/>
+    <mergeCell ref="Q135:T135"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:O130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:O131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:O132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:O133"/>
   </mergeCells>
   <conditionalFormatting sqref="G76">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
